--- a/code/excels/items/imba_items_lang.xlsx
+++ b/code/excels/items/imba_items_lang.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4046" uniqueCount="2364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4061" uniqueCount="2379">
   <si>
     <t>主键</t>
   </si>
@@ -1476,7 +1476,7 @@
     <t>治疗药膏</t>
   </si>
   <si>
-    <t>&lt;h1&gt;使用：药膏&lt;/h1&gt;向目标提供%health_regen%点/秒生命恢复，持续%buff_duration%秒。&lt;br&gt;&lt;br&gt;受到敌方英雄或肉山攻击时效果会被驱散。&lt;br&gt;&lt;br&gt;对友军施放时治疗量减半。&lt;br&gt;&lt;br&gt;对友军施放距离：%abilitycastrange%</t>
+    <t>&lt;h1&gt;使用：药膏&lt;/h1&gt;生命低于百分之50，触发使用。向目标提供%health_regen%点/秒生命恢复，持续%buff_duration%秒。&lt;br&gt;&lt;br&gt;对友军施放距离：%abilitycastrange%</t>
   </si>
   <si>
     <t>即使最严重的伤口也能快速治愈的魔法药膏。</t>
@@ -3060,7 +3060,7 @@
     <t>不朽之守护</t>
   </si>
   <si>
-    <t>&lt;h1&gt;被动：重生&lt;/h1&gt;死亡%reincarnate_time%秒后在原地满血满魔复活。&lt;br&gt;&lt;br&gt;重生必须在%disappear_time_minutes_tooltip%分钟内使用，否则不朽之守护将消失。消失时将在5秒内回复英雄的生命值。（受到攻击将会停止回复）</t>
+    <t>&lt;h1&gt;被动：重生&lt;/h1&gt;死亡%reincarnate_time%秒后在原地满血满魔复活。&lt;br&gt;&lt;br&gt;重生必须在%disappear_time%分钟内使用，否则不朽之守护将消失。消失时将在5秒内回复英雄的生命值。（受到攻击将会停止回复）</t>
   </si>
   <si>
     <t>据说不朽者拥有一面能帮他躲过死亡的盾牌。</t>
@@ -3075,7 +3075,7 @@
     <t>奶酪</t>
   </si>
   <si>
-    <t>&lt;h1&gt;使用：干酪&lt;/h1&gt;立刻回复%health_restore%点生命与%mana_restore%点魔法。</t>
+    <t>&lt;h1&gt;使用：干酪&lt;/h1&gt;生命低于百分之50后，触发使用。立刻回复%health_restore%点生命与%mana_restore%点魔法。</t>
   </si>
   <si>
     <t>一个久未谋面的熊怪供应商用奶做的奶酪，能瞬间回复品尝者的活力。</t>
@@ -7041,46 +7041,91 @@
     <t>金币福袋</t>
   </si>
   <si>
+    <t>&lt;h1&gt;被动：存储&lt;/h1&gt;参与战斗的携带者，如果本轮战斗胜利且携带者存活，会吸纳%gold_get%金币进入袋子中。装满袋子后，自动使用获取袋中所有金币。&lt;br&gt;&lt;br&gt;进度：%cur_get%/%need_max%</t>
+  </si>
+  <si>
     <t>item_shop_wood_bag</t>
   </si>
   <si>
     <t>木材福袋</t>
   </si>
   <si>
+    <t>&lt;h1&gt;被动：存储&lt;/h1&gt;参与战斗的携带者，如果本轮战斗胜利且携带者存活，会吸纳%gold_get%木材进入袋子中。装满袋子后，自动使用获取袋中所有木材。&lt;br&gt;&lt;br&gt;进度：%cur_get%/%need_max%</t>
+  </si>
+  <si>
     <t>item_shop_soulcrystal_bag</t>
   </si>
   <si>
     <t>魂晶福袋</t>
   </si>
   <si>
+    <t>&lt;h1&gt;被动：存储&lt;/h1&gt;参与战斗的携带者，如果本轮战斗胜利且携带者存活，会吸纳%gold_get%魂晶进入袋子中。装满袋子后，自动使用获取袋中所有魂晶。&lt;br&gt;&lt;br&gt;进度：%cur_get%/%need_max%</t>
+  </si>
+  <si>
     <t>item_shop_lottery_ticket</t>
   </si>
   <si>
     <t>刮刮乐</t>
   </si>
   <si>
+    <t>&lt;h1&gt;购买后自动使用：刮奖&lt;/h1&gt;使用后，消耗当前%gold_cost_pect%%的金币，概率获得多倍消耗的金币，也有可能什么也没有。</t>
+  </si>
+  <si>
+    <t>刮奖有风险，可能血本无归。</t>
+  </si>
+  <si>
+    <t>gold_get_2</t>
+  </si>
+  <si>
+    <t>2倍获取概率：</t>
+  </si>
+  <si>
+    <t>gold_get_5</t>
+  </si>
+  <si>
+    <t>5倍获取概率：</t>
+  </si>
+  <si>
+    <t>gold_get_100</t>
+  </si>
+  <si>
+    <t>100倍获取概率：</t>
+  </si>
+  <si>
     <t>item_shop_equiptreasure_c</t>
   </si>
   <si>
     <t>初级装备宝箱</t>
   </si>
   <si>
+    <t>&lt;h1&gt;购买后自动使用：抽取装备&lt;/h1&gt;使用后，随机抽取一件绿色[C]装备。</t>
+  </si>
+  <si>
     <t>item_shop_equiptreasure_b</t>
   </si>
   <si>
     <t>中级装备宝箱</t>
   </si>
   <si>
+    <t>&lt;h1&gt;购买后自动使用：抽取装备&lt;/h1&gt;使用后，随机抽取一件蓝色[B]装备。</t>
+  </si>
+  <si>
     <t>item_shop_equiptreasure_a</t>
   </si>
   <si>
     <t>高级装备宝箱</t>
   </si>
   <si>
+    <t>&lt;h1&gt;购买后自动使用：抽取装备&lt;/h1&gt;使用后，随机抽取一件紫色[A]装备。</t>
+  </si>
+  <si>
     <t>item_shop_equiptreasure_s</t>
   </si>
   <si>
     <t>传奇装备宝箱</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;购买后自动使用：抽取装备&lt;/h1&gt;使用后，随机抽取一件橙色[S]装备。</t>
   </si>
   <si>
     <t>item_imba_shadow_blade</t>
@@ -8147,8 +8192,8 @@
   <sheetPr/>
   <dimension ref="A1:AO613"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A590" workbookViewId="0">
-      <selection activeCell="B615" sqref="B615"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="15"/>
@@ -8162,7 +8207,7 @@
     <col min="7" max="7" width="9.81818181818182" style="5"/>
     <col min="8" max="13" width="9.81818181818182" style="4"/>
     <col min="14" max="14" width="34.4545454545455" style="6" customWidth="1"/>
-    <col min="15" max="15" width="52.6363636363636" style="4" customWidth="1"/>
+    <col min="15" max="15" width="37.2181818181818" style="4" customWidth="1"/>
     <col min="16" max="16" width="36.6363636363636" style="4" customWidth="1"/>
     <col min="17" max="17" width="29.2727272727273" style="4" customWidth="1"/>
     <col min="18" max="18" width="21.7272727272727" style="4" customWidth="1"/>
@@ -21627,68 +21672,114 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="606" spans="1:2">
+    <row r="606" spans="1:14">
       <c r="A606" s="9" t="s">
         <v>2338</v>
       </c>
       <c r="B606" s="11" t="s">
         <v>2339</v>
       </c>
-    </row>
-    <row r="607" spans="1:2">
+      <c r="C606" s="4" t="s">
+        <v>2340</v>
+      </c>
+      <c r="N606" s="5"/>
+    </row>
+    <row r="607" spans="1:3">
       <c r="A607" s="9" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="B607" s="11" t="s">
-        <v>2341</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2">
+        <v>2342</v>
+      </c>
+      <c r="C607" s="4" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3">
       <c r="A608" s="9" t="s">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="B608" s="11" t="s">
-        <v>2343</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2">
+        <v>2345</v>
+      </c>
+      <c r="C608" s="4" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="609" spans="1:19">
       <c r="A609" s="9" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="B609" s="11" t="s">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2">
+        <v>2348</v>
+      </c>
+      <c r="C609" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D609" s="4" t="s">
+        <v>2350</v>
+      </c>
+      <c r="N609" s="6" t="s">
+        <v>2351</v>
+      </c>
+      <c r="O609" s="4" t="s">
+        <v>2352</v>
+      </c>
+      <c r="P609" s="6" t="s">
+        <v>2353</v>
+      </c>
+      <c r="Q609" s="4" t="s">
+        <v>2354</v>
+      </c>
+      <c r="R609" s="6" t="s">
+        <v>2355</v>
+      </c>
+      <c r="S609" s="4" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3">
       <c r="A610" s="9" t="s">
-        <v>2346</v>
+        <v>2357</v>
       </c>
       <c r="B610" s="11" t="s">
-        <v>2347</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2">
+        <v>2358</v>
+      </c>
+      <c r="C610" s="4" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
       <c r="A611" s="9" t="s">
-        <v>2348</v>
+        <v>2360</v>
       </c>
       <c r="B611" s="11" t="s">
-        <v>2349</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2">
+        <v>2361</v>
+      </c>
+      <c r="C611" s="4" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
       <c r="A612" s="9" t="s">
-        <v>2350</v>
+        <v>2363</v>
       </c>
       <c r="B612" s="11" t="s">
-        <v>2351</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2">
+        <v>2364</v>
+      </c>
+      <c r="C612" s="4" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
       <c r="A613" s="9" t="s">
-        <v>2352</v>
+        <v>2366</v>
       </c>
       <c r="B613" s="11" t="s">
-        <v>2353</v>
+        <v>2367</v>
+      </c>
+      <c r="C613" s="4" t="s">
+        <v>2368</v>
       </c>
     </row>
   </sheetData>
@@ -21751,7 +21842,7 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>2354</v>
+        <v>2369</v>
       </c>
       <c r="B4" s="1" t="e">
         <v>#N/A</v>
@@ -21761,7 +21852,7 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>2355</v>
+        <v>2370</v>
       </c>
       <c r="B5" s="1" t="e">
         <v>#N/A</v>
@@ -21821,7 +21912,7 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>2356</v>
+        <v>2371</v>
       </c>
       <c r="B11" s="1" t="e">
         <v>#N/A</v>
@@ -21941,7 +22032,7 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>2357</v>
+        <v>2372</v>
       </c>
       <c r="B23" s="1" t="e">
         <v>#N/A</v>
@@ -22011,7 +22102,7 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>2358</v>
+        <v>2373</v>
       </c>
       <c r="B30" s="1" t="e">
         <v>#N/A</v>
@@ -22041,7 +22132,7 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A33" s="1" t="s">
-        <v>2359</v>
+        <v>2374</v>
       </c>
       <c r="B33" s="1" t="e">
         <v>#N/A</v>
@@ -22051,7 +22142,7 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A34" s="1" t="s">
-        <v>2360</v>
+        <v>2375</v>
       </c>
       <c r="B34" s="1" t="e">
         <v>#N/A</v>
@@ -22081,7 +22172,7 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A37" s="1" t="s">
-        <v>2361</v>
+        <v>2376</v>
       </c>
       <c r="B37" s="1" t="e">
         <v>#N/A</v>
@@ -22121,7 +22212,7 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A41" s="1" t="s">
-        <v>2362</v>
+        <v>2377</v>
       </c>
       <c r="B41" s="1" t="e">
         <v>#N/A</v>
@@ -22131,7 +22222,7 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A42" s="1" t="s">
-        <v>2363</v>
+        <v>2378</v>
       </c>
       <c r="B42" s="1" t="e">
         <v>#N/A</v>

--- a/code/excels/items/imba_items_lang.xlsx
+++ b/code/excels/items/imba_items_lang.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4061" uniqueCount="2379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="2374">
   <si>
     <t>主键</t>
   </si>
@@ -2835,25 +2835,10 @@
     <t>穷鬼盾</t>
   </si>
   <si>
-    <t>&lt;h1&gt;被动：伤害格挡&lt;/h1&gt;近战英雄有100%%几率格挡%damage_block_melee%点伤害，远程英雄为%damage_block_ranged%点伤害。&lt;br&gt;&lt;br&gt;有%block_chance%%%几率格挡来自非英雄单位的伤害。</t>
+    <t>&lt;h1&gt;被动：伤害格挡&lt;/h1&gt;近战英雄有%block_chance%%几率格挡%bonus_block_melee%点伤害，远程英雄为%bonus_block_range%点伤害。</t>
   </si>
   <si>
     <t>一块破旧的老式盾牌，格挡效果却比想象中要好。</t>
-  </si>
-  <si>
-    <t>%CREEP BLOCK CHANCE:</t>
-  </si>
-  <si>
-    <t>damage_block_melee</t>
-  </si>
-  <si>
-    <t>MELEE DAMAGE BLOCK:</t>
-  </si>
-  <si>
-    <t>damage_block_ranged</t>
-  </si>
-  <si>
-    <t>RANGED DAMAGE BLOCK:</t>
   </si>
   <si>
     <t>item_imba_power_treads</t>
@@ -8193,7 +8178,7 @@
   <dimension ref="A1:AO613"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="F145" sqref="F145"/>
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="15"/>
@@ -13768,7 +13753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="148" s="4" customFormat="1" spans="1:21">
+    <row r="148" s="4" customFormat="1" spans="1:15">
       <c r="A148" s="4" t="s">
         <v>936</v>
       </c>
@@ -13784,64 +13769,46 @@
       <c r="G148" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N148" s="5" t="s">
-        <v>373</v>
+      <c r="N148" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="O148" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="P148" s="4" t="s">
-        <v>941</v>
-      </c>
-      <c r="Q148" s="4" t="s">
-        <v>942</v>
-      </c>
-      <c r="R148" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="S148" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="T148" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="U148" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="149" s="4" customFormat="1" spans="1:27">
       <c r="A149" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="N149" s="5" t="s">
         <v>945</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="O149" s="4" t="s">
         <v>946</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="P149" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="Q149" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="G149" s="4" t="s">
+      <c r="R149" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="N149" s="5" t="s">
+      <c r="S149" s="4" t="s">
         <v>950</v>
-      </c>
-      <c r="O149" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="P149" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="Q149" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="R149" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="S149" s="4" t="s">
-        <v>955</v>
       </c>
       <c r="T149" s="4" t="s">
         <v>173</v>
@@ -13850,10 +13817,10 @@
         <v>174</v>
       </c>
       <c r="V149" s="4" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="W149" s="4" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="X149" s="4" t="s">
         <v>42</v>
@@ -13870,16 +13837,16 @@
     </row>
     <row r="150" s="4" customFormat="1" spans="1:17">
       <c r="A150" s="4" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="N150" s="5" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="O150" s="4" t="s">
         <v>65</v>
@@ -13893,13 +13860,13 @@
     </row>
     <row r="151" s="4" customFormat="1" spans="1:15">
       <c r="A151" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="N151" s="5" t="s">
         <v>64</v>
@@ -13910,16 +13877,16 @@
     </row>
     <row r="152" s="4" customFormat="1" spans="1:27">
       <c r="A152" s="4" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="N152" s="5" t="s">
         <v>87</v>
@@ -13952,33 +13919,33 @@
         <v>114</v>
       </c>
       <c r="X152" s="4" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="Y152" s="4" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="Z152" s="4" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="AA152" s="4" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
     </row>
     <row r="153" s="4" customFormat="1" spans="1:21">
       <c r="A153" s="4" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="N153" s="5" t="s">
         <v>625</v>
@@ -13996,27 +13963,27 @@
         <v>121</v>
       </c>
       <c r="S153" s="4" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="T153" s="4" t="s">
         <v>123</v>
       </c>
       <c r="U153" s="4" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="154" s="4" customFormat="1" spans="1:21">
       <c r="A154" s="4" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="N154" s="5" t="s">
         <v>42</v>
@@ -14025,13 +13992,13 @@
         <v>43</v>
       </c>
       <c r="P154" s="4" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="Q154" s="4" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="R154" s="4" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="S154" s="4" t="s">
         <v>222</v>
@@ -14040,24 +14007,24 @@
         <v>925</v>
       </c>
       <c r="U154" s="4" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="155" s="4" customFormat="1" spans="1:15">
       <c r="A155" s="4" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="N155" s="5" t="s">
         <v>42</v>
@@ -14068,19 +14035,19 @@
     </row>
     <row r="156" s="4" customFormat="1" spans="1:15">
       <c r="A156" s="4" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="N156" s="5" t="s">
         <v>42</v>
@@ -14091,19 +14058,19 @@
     </row>
     <row r="157" s="4" customFormat="1" spans="1:15">
       <c r="A157" s="4" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="N157" s="5" t="s">
         <v>42</v>
@@ -14114,19 +14081,19 @@
     </row>
     <row r="158" s="4" customFormat="1" spans="1:15">
       <c r="A158" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="N158" s="5" t="s">
         <v>42</v>
@@ -14137,13 +14104,13 @@
     </row>
     <row r="159" s="4" customFormat="1" spans="1:15">
       <c r="A159" s="4" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="N159" s="5" t="s">
         <v>87</v>
@@ -14154,16 +14121,16 @@
     </row>
     <row r="160" s="4" customFormat="1" spans="1:17">
       <c r="A160" s="4" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="N160" s="4" t="s">
         <v>68</v>
@@ -14180,55 +14147,55 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="4" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="N161" s="5"/>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="4" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="N162" s="5"/>
     </row>
     <row r="163" s="4" customFormat="1" spans="1:17">
       <c r="A163" s="4" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="N163" s="5" t="s">
         <v>190</v>
@@ -14245,13 +14212,13 @@
     </row>
     <row r="164" s="4" customFormat="1" spans="1:15">
       <c r="A164" s="4" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="N164" s="5" t="s">
         <v>42</v>
@@ -14262,16 +14229,16 @@
     </row>
     <row r="165" s="4" customFormat="1" spans="1:17">
       <c r="A165" s="4" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="N165" s="5" t="s">
         <v>204</v>
@@ -14288,16 +14255,16 @@
     </row>
     <row r="166" s="4" customFormat="1" spans="1:21">
       <c r="A166" s="4" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="N166" s="5" t="s">
         <v>44</v>
@@ -14326,13 +14293,13 @@
     </row>
     <row r="167" s="4" customFormat="1" spans="1:15">
       <c r="A167" s="4" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="N167" s="5" t="s">
         <v>68</v>
@@ -14343,13 +14310,13 @@
     </row>
     <row r="168" s="4" customFormat="1" spans="1:15">
       <c r="A168" s="4" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="N168" s="5" t="s">
         <v>53</v>
@@ -14360,13 +14327,13 @@
     </row>
     <row r="169" s="4" customFormat="1" spans="1:15">
       <c r="A169" s="4" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="N169" s="5" t="s">
         <v>68</v>
@@ -14377,13 +14344,13 @@
     </row>
     <row r="170" s="4" customFormat="1" spans="1:17">
       <c r="A170" s="4" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="N170" s="5" t="s">
         <v>68</v>
@@ -14400,13 +14367,13 @@
     </row>
     <row r="171" s="4" customFormat="1" spans="1:15">
       <c r="A171" s="4" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="N171" s="5" t="s">
         <v>140</v>
@@ -14417,16 +14384,16 @@
     </row>
     <row r="172" s="4" customFormat="1" spans="1:21">
       <c r="A172" s="4" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="N172" s="5" t="s">
         <v>140</v>
@@ -14450,21 +14417,21 @@
         <v>131</v>
       </c>
       <c r="U172" s="4" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="173" s="4" customFormat="1" spans="1:21">
       <c r="A173" s="4" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="N173" s="5" t="s">
         <v>140</v>
@@ -14488,18 +14455,18 @@
         <v>131</v>
       </c>
       <c r="U173" s="4" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="174" s="4" customFormat="1" spans="1:19">
       <c r="A174" s="4" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="N174" s="4" t="s">
         <v>87</v>
@@ -14522,16 +14489,16 @@
     </row>
     <row r="175" s="4" customFormat="1" spans="1:21">
       <c r="A175" s="4" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="N175" s="5" t="s">
         <v>221</v>
@@ -14560,13 +14527,13 @@
     </row>
     <row r="176" s="4" customFormat="1" spans="1:25">
       <c r="A176" s="4" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>754</v>
@@ -14610,16 +14577,16 @@
     </row>
     <row r="177" s="4" customFormat="1" spans="1:23">
       <c r="A177" s="4" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="N177" s="5" t="s">
         <v>87</v>
@@ -14640,33 +14607,33 @@
         <v>714</v>
       </c>
       <c r="T177" s="4" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="U177" s="4" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="V177" s="4" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="W177" s="4" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="178" s="4" customFormat="1" spans="1:23">
       <c r="A178" s="4" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="N178" s="5" t="s">
         <v>87</v>
@@ -14693,33 +14660,33 @@
         <v>114</v>
       </c>
       <c r="V178" s="4" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="W178" s="4" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="179" s="4" customFormat="1" spans="1:27">
       <c r="A179" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H179" s="4" t="s">
         <v>1079</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="I179" s="4" t="s">
         <v>1080</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G179" s="4" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H179" s="4" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I179" s="4" t="s">
-        <v>1085</v>
       </c>
       <c r="N179" s="5" t="s">
         <v>140</v>
@@ -14737,45 +14704,45 @@
         <v>73</v>
       </c>
       <c r="S179" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="T179" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="U179" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="V179" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="W179" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="X179" s="4" t="s">
         <v>1086</v>
       </c>
-      <c r="T179" s="4" t="s">
+      <c r="Y179" s="4" t="s">
         <v>1087</v>
       </c>
-      <c r="U179" s="4" t="s">
+      <c r="Z179" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="V179" s="4" t="s">
+      <c r="AA179" s="4" t="s">
         <v>1089</v>
-      </c>
-      <c r="W179" s="4" t="s">
-        <v>1090</v>
-      </c>
-      <c r="X179" s="4" t="s">
-        <v>1091</v>
-      </c>
-      <c r="Y179" s="4" t="s">
-        <v>1092</v>
-      </c>
-      <c r="Z179" s="4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="AA179" s="4" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="180" s="4" customFormat="1" spans="1:27">
       <c r="A180" s="4" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="N180" s="5" t="s">
         <v>204</v>
@@ -14796,39 +14763,39 @@
         <v>165</v>
       </c>
       <c r="T180" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="U180" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="V180" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="W180" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="X180" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="Y180" s="4" t="s">
         <v>1099</v>
       </c>
-      <c r="U180" s="4" t="s">
+      <c r="Z180" s="4" t="s">
         <v>1100</v>
       </c>
-      <c r="V180" s="4" t="s">
+      <c r="AA180" s="4" t="s">
         <v>1101</v>
-      </c>
-      <c r="W180" s="4" t="s">
-        <v>1102</v>
-      </c>
-      <c r="X180" s="4" t="s">
-        <v>1103</v>
-      </c>
-      <c r="Y180" s="4" t="s">
-        <v>1104</v>
-      </c>
-      <c r="Z180" s="4" t="s">
-        <v>1105</v>
-      </c>
-      <c r="AA180" s="4" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="181" s="4" customFormat="1" spans="1:15">
       <c r="A181" s="4" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="N181" s="5" t="s">
         <v>102</v>
@@ -14839,13 +14806,13 @@
     </row>
     <row r="182" s="4" customFormat="1" spans="1:15">
       <c r="A182" s="4" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="N182" s="5" t="s">
         <v>113</v>
@@ -14856,13 +14823,13 @@
     </row>
     <row r="183" s="4" customFormat="1" spans="1:19">
       <c r="A183" s="4" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="N183" s="5" t="s">
         <v>44</v>
@@ -14885,19 +14852,19 @@
     </row>
     <row r="184" s="4" customFormat="1" spans="1:19">
       <c r="A184" s="4" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="N184" s="5" t="s">
         <v>87</v>
@@ -14915,18 +14882,18 @@
         <v>131</v>
       </c>
       <c r="S184" s="4" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="185" s="4" customFormat="1" spans="1:15">
       <c r="A185" s="4" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="N185" s="5" t="s">
         <v>140</v>
@@ -14937,16 +14904,16 @@
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="4" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>41</v>
@@ -14955,16 +14922,16 @@
     </row>
     <row r="187" s="4" customFormat="1" spans="1:21">
       <c r="A187" s="4" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="N187" s="5" t="s">
         <v>64</v>
@@ -14973,33 +14940,33 @@
         <v>65</v>
       </c>
       <c r="P187" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="Q187" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="R187" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="S187" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="T187" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="U187" s="4" t="s">
         <v>1133</v>
-      </c>
-      <c r="Q187" s="4" t="s">
-        <v>1134</v>
-      </c>
-      <c r="R187" s="4" t="s">
-        <v>1135</v>
-      </c>
-      <c r="S187" s="4" t="s">
-        <v>1136</v>
-      </c>
-      <c r="T187" s="4" t="s">
-        <v>1137</v>
-      </c>
-      <c r="U187" s="4" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="188" s="4" customFormat="1" spans="1:15">
       <c r="A188" s="4" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>220</v>
@@ -15013,137 +14980,137 @@
     </row>
     <row r="189" s="4" customFormat="1" spans="1:21">
       <c r="A189" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="N189" s="4" t="s">
         <v>1142</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="O189" s="4" t="s">
         <v>1143</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="P189" s="4" t="s">
         <v>1144</v>
       </c>
-      <c r="D189" s="4" t="s">
+      <c r="Q189" s="4" t="s">
         <v>1145</v>
-      </c>
-      <c r="G189" s="4" t="s">
-        <v>1146</v>
-      </c>
-      <c r="N189" s="4" t="s">
-        <v>1147</v>
-      </c>
-      <c r="O189" s="4" t="s">
-        <v>1148</v>
-      </c>
-      <c r="P189" s="4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="Q189" s="4" t="s">
-        <v>1150</v>
       </c>
       <c r="R189" s="4" t="s">
         <v>123</v>
       </c>
       <c r="S189" s="4" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="T189" s="4" t="s">
         <v>243</v>
       </c>
       <c r="U189" s="4" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="190" s="4" customFormat="1" spans="1:21">
       <c r="A190" s="4" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="N190" s="4" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="O190" s="4" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="P190" s="4" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="Q190" s="4" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="R190" s="4" t="s">
         <v>123</v>
       </c>
       <c r="S190" s="4" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="T190" s="4" t="s">
         <v>243</v>
       </c>
       <c r="U190" s="4" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H191" s="4" t="s">
         <v>1157</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G191" s="4" t="s">
-        <v>1161</v>
-      </c>
-      <c r="H191" s="4" t="s">
-        <v>1162</v>
       </c>
       <c r="N191" s="5"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="4" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="N192" s="5"/>
     </row>
     <row r="193" s="4" customFormat="1" spans="1:17">
       <c r="A193" s="4" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="N193" s="4" t="s">
         <v>173</v>
@@ -15160,16 +15127,16 @@
     </row>
     <row r="194" s="4" customFormat="1" spans="1:19">
       <c r="A194" s="4" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="N194" s="4" t="s">
         <v>173</v>
@@ -15192,19 +15159,19 @@
     </row>
     <row r="195" s="4" customFormat="1" spans="1:17">
       <c r="A195" s="4" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="N195" s="4" t="s">
         <v>173</v>
@@ -15213,27 +15180,27 @@
         <v>174</v>
       </c>
       <c r="P195" s="4" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="Q195" s="4" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="196" s="4" customFormat="1" spans="1:19">
       <c r="A196" s="4" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="N196" s="4" t="s">
         <v>173</v>
@@ -15242,27 +15209,27 @@
         <v>174</v>
       </c>
       <c r="P196" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="Q196" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="R196" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="S196" s="4" t="s">
         <v>1178</v>
-      </c>
-      <c r="Q196" s="4" t="s">
-        <v>1179</v>
-      </c>
-      <c r="R196" s="4" t="s">
-        <v>1182</v>
-      </c>
-      <c r="S196" s="4" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="197" s="4" customFormat="1" spans="1:15">
       <c r="A197" s="4" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="N197" s="5" t="s">
         <v>204</v>
@@ -15273,16 +15240,16 @@
     </row>
     <row r="198" s="4" customFormat="1" spans="1:19">
       <c r="A198" s="4" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="N198" s="4" t="s">
         <v>204</v>
@@ -15305,16 +15272,16 @@
     </row>
     <row r="199" s="4" customFormat="1" spans="1:19">
       <c r="A199" s="4" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="N199" s="4" t="s">
         <v>204</v>
@@ -15337,32 +15304,32 @@
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="4" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="G200" s="4"/>
       <c r="N200" s="5"/>
     </row>
     <row r="201" s="4" customFormat="1" spans="1:15">
       <c r="A201" s="4" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="N201" s="4" t="s">
         <v>204</v>
@@ -15373,16 +15340,16 @@
     </row>
     <row r="202" s="4" customFormat="1" spans="1:15">
       <c r="A202" s="4" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="N202" s="4" t="s">
         <v>204</v>
@@ -15393,19 +15360,19 @@
     </row>
     <row r="203" s="4" customFormat="1" spans="1:15">
       <c r="A203" s="4" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="C203" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="N203" s="4" t="s">
         <v>1197</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>1198</v>
-      </c>
-      <c r="N203" s="4" t="s">
-        <v>1202</v>
       </c>
       <c r="O203" s="4" t="s">
         <v>205</v>
@@ -15413,22 +15380,22 @@
     </row>
     <row r="204" s="4" customFormat="1" spans="1:29">
       <c r="A204" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H204" s="4" t="s">
         <v>1203</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>1206</v>
-      </c>
-      <c r="G204" s="4" t="s">
-        <v>1207</v>
-      </c>
-      <c r="H204" s="4" t="s">
-        <v>1208</v>
       </c>
       <c r="N204" s="5" t="s">
         <v>44</v>
@@ -15455,39 +15422,39 @@
         <v>205</v>
       </c>
       <c r="V204" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="W204" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="X204" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="Y204" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="Z204" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="AA204" s="4" t="s">
         <v>1209</v>
       </c>
-      <c r="W204" s="4" t="s">
+      <c r="AB204" s="4" t="s">
         <v>1210</v>
       </c>
-      <c r="X204" s="4" t="s">
+      <c r="AC204" s="4" t="s">
         <v>1211</v>
-      </c>
-      <c r="Y204" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="Z204" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="AA204" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="AB204" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="AC204" s="4" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="205" s="4" customFormat="1" spans="1:17">
       <c r="A205" s="4" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="N205" s="5" t="s">
         <v>215</v>
@@ -15504,13 +15471,13 @@
     </row>
     <row r="206" s="4" customFormat="1" spans="1:15">
       <c r="A206" s="4" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="N206" s="5" t="s">
         <v>44</v>
@@ -15521,13 +15488,13 @@
     </row>
     <row r="207" s="4" customFormat="1" spans="1:19">
       <c r="A207" s="4" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="N207" s="5" t="s">
         <v>44</v>
@@ -15550,16 +15517,16 @@
     </row>
     <row r="208" s="4" customFormat="1" spans="1:15">
       <c r="A208" s="4" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="N208" s="5" t="s">
         <v>102</v>
@@ -15570,16 +15537,16 @@
     </row>
     <row r="209" s="4" customFormat="1" spans="1:23">
       <c r="A209" s="4" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="N209" s="5" t="s">
         <v>66</v>
@@ -15614,22 +15581,22 @@
     </row>
     <row r="210" s="4" customFormat="1" spans="1:15">
       <c r="A210" s="4" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="G210" s="4" t="s">
         <v>154</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="N210" s="5" t="s">
         <v>87</v>
@@ -15640,22 +15607,22 @@
     </row>
     <row r="211" s="4" customFormat="1" spans="1:15">
       <c r="A211" s="4" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="G211" s="4" t="s">
         <v>154</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="N211" s="5" t="s">
         <v>102</v>
@@ -15666,22 +15633,22 @@
     </row>
     <row r="212" s="4" customFormat="1" spans="1:15">
       <c r="A212" s="4" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="G212" s="4" t="s">
         <v>154</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="N212" s="5" t="s">
         <v>140</v>
@@ -15692,16 +15659,16 @@
     </row>
     <row r="213" s="4" customFormat="1" spans="1:23">
       <c r="A213" s="4" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="G213" s="4" t="s">
         <v>41</v>
@@ -15739,13 +15706,13 @@
     </row>
     <row r="214" s="4" customFormat="1" spans="1:15">
       <c r="A214" s="4" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="N214" s="5" t="s">
         <v>44</v>
@@ -15756,48 +15723,48 @@
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="4" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="G215" s="4"/>
       <c r="N215" s="5"/>
     </row>
     <row r="216" spans="1:14">
       <c r="A216" s="4" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="G216" s="4"/>
       <c r="N216" s="5"/>
     </row>
     <row r="217" s="4" customFormat="1" spans="1:17">
       <c r="A217" s="4" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="N217" s="5" t="s">
         <v>44</v>
@@ -15814,13 +15781,13 @@
     </row>
     <row r="218" s="4" customFormat="1" spans="1:15">
       <c r="A218" s="4" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="N218" s="5" t="s">
         <v>113</v>
@@ -15831,68 +15798,68 @@
     </row>
     <row r="219" s="4" customFormat="1" spans="1:17">
       <c r="A219" s="4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="N219" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="O219" s="4" t="s">
         <v>1269</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="P219" s="4" t="s">
         <v>1270</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="Q219" s="4" t="s">
         <v>1271</v>
-      </c>
-      <c r="D219" s="4" t="s">
-        <v>1272</v>
-      </c>
-      <c r="N219" s="5" t="s">
-        <v>1273</v>
-      </c>
-      <c r="O219" s="4" t="s">
-        <v>1274</v>
-      </c>
-      <c r="P219" s="4" t="s">
-        <v>1275</v>
-      </c>
-      <c r="Q219" s="4" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="220" s="4" customFormat="1" spans="1:17">
       <c r="A220" s="4" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="N220" s="5" t="s">
         <v>678</v>
       </c>
       <c r="O220" s="4" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="P220" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="Q220" s="4" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="221" s="4" customFormat="1" spans="1:23">
       <c r="A221" s="4" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>198</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="N221" s="5" t="s">
         <v>87</v>
@@ -15927,13 +15894,13 @@
     </row>
     <row r="222" s="4" customFormat="1" spans="1:19">
       <c r="A222" s="4" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="G222" s="4" t="s">
         <v>754</v>
@@ -15959,19 +15926,19 @@
     </row>
     <row r="223" s="4" customFormat="1" spans="1:21">
       <c r="A223" s="4" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="N223" s="4" t="s">
         <v>652</v>
@@ -15989,68 +15956,68 @@
         <v>636</v>
       </c>
       <c r="S223" s="4" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="T223" s="4" t="s">
         <v>667</v>
       </c>
       <c r="U223" s="4" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="224" s="4" customFormat="1" spans="1:21">
       <c r="A224" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="G224" s="4" t="s">
         <v>289</v>
       </c>
       <c r="N224" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="O224" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="P224" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="Q224" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="R224" s="4" t="s">
+        <v>1298</v>
+      </c>
+      <c r="S224" s="4" t="s">
         <v>1299</v>
       </c>
-      <c r="O224" s="4" t="s">
+      <c r="T224" s="4" t="s">
         <v>1300</v>
       </c>
-      <c r="P224" s="4" t="s">
+      <c r="U224" s="4" t="s">
         <v>1301</v>
-      </c>
-      <c r="Q224" s="4" t="s">
-        <v>1302</v>
-      </c>
-      <c r="R224" s="4" t="s">
-        <v>1303</v>
-      </c>
-      <c r="S224" s="4" t="s">
-        <v>1304</v>
-      </c>
-      <c r="T224" s="4" t="s">
-        <v>1305</v>
-      </c>
-      <c r="U224" s="4" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="225" s="4" customFormat="1" spans="1:33">
       <c r="A225" s="4" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="N225" s="5" t="s">
         <v>182</v>
@@ -16083,51 +16050,51 @@
         <v>174</v>
       </c>
       <c r="X225" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="Y225" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="Z225" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AA225" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="AB225" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AC225" s="4" t="s">
         <v>1311</v>
-      </c>
-      <c r="Y225" s="4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="Z225" s="4" t="s">
-        <v>1313</v>
-      </c>
-      <c r="AA225" s="4" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AB225" s="4" t="s">
-        <v>1315</v>
-      </c>
-      <c r="AC225" s="4" t="s">
-        <v>1316</v>
       </c>
       <c r="AD225" s="4" t="s">
         <v>131</v>
       </c>
       <c r="AE225" s="4" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="AF225" s="4" t="s">
         <v>454</v>
       </c>
       <c r="AG225" s="4" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="226" s="4" customFormat="1" spans="1:23">
       <c r="A226" s="4" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="N226" s="5" t="s">
         <v>53</v>
@@ -16142,42 +16109,42 @@
         <v>114</v>
       </c>
       <c r="R226" s="4" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="S226" s="4" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="T226" s="4" t="s">
         <v>131</v>
       </c>
       <c r="U226" s="4" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="V226" s="4" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="W226" s="4" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="227" s="4" customFormat="1" spans="1:17">
       <c r="A227" s="4" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="N227" s="5" t="s">
         <v>173</v>
       </c>
       <c r="O227" s="4" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="P227" s="4" t="s">
         <v>131</v>
@@ -16188,16 +16155,16 @@
     </row>
     <row r="228" s="4" customFormat="1" spans="1:15">
       <c r="A228" s="4" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="N228" s="5" t="s">
         <v>204</v>
@@ -16208,16 +16175,16 @@
     </row>
     <row r="229" s="4" customFormat="1" spans="1:21">
       <c r="A229" s="4" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="N229" s="5" t="s">
         <v>53</v>
@@ -16246,19 +16213,19 @@
     </row>
     <row r="230" s="4" customFormat="1" spans="1:25">
       <c r="A230" s="4" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="N230" s="5" t="s">
         <v>87</v>
@@ -16285,47 +16252,47 @@
         <v>43</v>
       </c>
       <c r="V230" s="4" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="W230" s="4" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="X230" s="4" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="Y230" s="4" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="231" s="4" customFormat="1" spans="1:15">
       <c r="A231" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="N231" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="O231" s="4" t="s">
         <v>1351</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D231" s="4" t="s">
-        <v>1354</v>
-      </c>
-      <c r="N231" s="5" t="s">
-        <v>1355</v>
-      </c>
-      <c r="O231" s="4" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="232" s="4" customFormat="1" spans="1:17">
       <c r="A232" s="4" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="N232" s="5" t="s">
         <v>113</v>
@@ -16342,25 +16309,25 @@
     </row>
     <row r="233" s="4" customFormat="1" spans="1:17">
       <c r="A233" s="4" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="N233" s="5" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="O233" s="4" t="s">
         <v>299</v>
       </c>
       <c r="P233" s="4" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="Q233" s="4" t="s">
         <v>65</v>
@@ -16368,16 +16335,16 @@
     </row>
     <row r="234" s="4" customFormat="1" spans="1:17">
       <c r="A234" s="4" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>616</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="N234" s="5" t="s">
         <v>68</v>
@@ -16394,19 +16361,19 @@
     </row>
     <row r="235" s="4" customFormat="1" spans="1:19">
       <c r="A235" s="4" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="N235" s="5" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="O235" s="4" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="P235" s="4" t="s">
         <v>164</v>
@@ -16418,21 +16385,21 @@
         <v>42</v>
       </c>
       <c r="S235" s="4" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="236" s="4" customFormat="1" spans="1:17">
       <c r="A236" s="4" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="N236" s="5" t="s">
         <v>173</v>
@@ -16449,29 +16416,29 @@
     </row>
     <row r="237" spans="1:14">
       <c r="A237" s="4" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="G237" s="4"/>
       <c r="N237" s="5"/>
     </row>
     <row r="238" s="4" customFormat="1" spans="1:19">
       <c r="A238" s="4" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="N238" s="5" t="s">
         <v>304</v>
@@ -16480,10 +16447,10 @@
         <v>305</v>
       </c>
       <c r="P238" s="4" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="Q238" s="4" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="R238" s="4" t="s">
         <v>264</v>
@@ -16494,42 +16461,42 @@
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="4" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="G239" s="4"/>
       <c r="N239" s="5"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="4" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="G240" s="4"/>
       <c r="N240" s="5"/>
     </row>
     <row r="241" s="4" customFormat="1" spans="1:19">
       <c r="A241" s="4" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="N241" s="5" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="O241" s="4" t="s">
         <v>54</v>
@@ -16538,7 +16505,7 @@
         <v>521</v>
       </c>
       <c r="Q241" s="4" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="R241" s="4" t="s">
         <v>44</v>
@@ -16549,10 +16516,10 @@
     </row>
     <row r="242" s="4" customFormat="1" spans="1:15">
       <c r="A242" s="4" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>256</v>
@@ -16566,45 +16533,45 @@
     </row>
     <row r="243" s="4" customFormat="1" spans="1:17">
       <c r="A243" s="4" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="N243" s="5" t="s">
+        <v>1400</v>
+      </c>
+      <c r="O243" s="4" t="s">
         <v>1401</v>
-      </c>
-      <c r="B243" s="4" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D243" s="4" t="s">
-        <v>1404</v>
-      </c>
-      <c r="N243" s="5" t="s">
-        <v>1405</v>
-      </c>
-      <c r="O243" s="4" t="s">
-        <v>1406</v>
       </c>
       <c r="P243" s="4" t="s">
         <v>343</v>
       </c>
       <c r="Q243" s="4" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="244" s="4" customFormat="1" spans="1:15">
       <c r="A244" s="4" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="N244" s="5" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="O244" s="4" t="s">
         <v>205</v>
@@ -16612,16 +16579,16 @@
     </row>
     <row r="245" s="4" customFormat="1" spans="1:15">
       <c r="A245" s="4" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>202</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="N245" s="5" t="s">
         <v>204</v>
@@ -16632,62 +16599,62 @@
     </row>
     <row r="246" spans="1:14">
       <c r="A246" s="4" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="G246" s="4"/>
       <c r="N246" s="5"/>
     </row>
     <row r="247" s="4" customFormat="1" spans="1:15">
       <c r="A247" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="N247" s="5" t="s">
+        <v>1419</v>
+      </c>
+      <c r="O247" s="4" t="s">
         <v>1420</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D247" s="4" t="s">
-        <v>1423</v>
-      </c>
-      <c r="N247" s="5" t="s">
-        <v>1424</v>
-      </c>
-      <c r="O247" s="4" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="248" spans="1:14">
       <c r="A248" s="4" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
       <c r="G248" s="4"/>
       <c r="N248" s="5"/>
     </row>
     <row r="249" s="4" customFormat="1" spans="1:15">
       <c r="A249" s="4" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="N249" s="5" t="s">
         <v>635</v>
@@ -16698,45 +16665,45 @@
     </row>
     <row r="250" s="4" customFormat="1" spans="1:17">
       <c r="A250" s="4" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="N250" s="5" t="s">
+        <v>1431</v>
+      </c>
+      <c r="O250" s="4" t="s">
         <v>1432</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D250" s="4" t="s">
-        <v>1435</v>
-      </c>
-      <c r="N250" s="5" t="s">
-        <v>1436</v>
-      </c>
-      <c r="O250" s="4" t="s">
-        <v>1437</v>
       </c>
       <c r="P250" s="4" t="s">
         <v>521</v>
       </c>
       <c r="Q250" s="4" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="251" s="4" customFormat="1" spans="1:17">
       <c r="A251" s="4" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="N251" s="5" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="O251" s="4" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="P251" s="4" t="s">
         <v>204</v>
@@ -16747,16 +16714,16 @@
     </row>
     <row r="252" s="4" customFormat="1" spans="1:19">
       <c r="A252" s="4" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>616</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="N252" s="5" t="s">
         <v>204</v>
@@ -16779,59 +16746,59 @@
     </row>
     <row r="253" spans="1:14">
       <c r="A253" s="4" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="G253" s="4"/>
       <c r="N253" s="5"/>
     </row>
     <row r="254" spans="1:14">
       <c r="A254" s="4" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="G254" s="4"/>
       <c r="N254" s="5"/>
     </row>
     <row r="255" s="4" customFormat="1" spans="1:15">
       <c r="A255" s="4" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="N255" s="5" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="O255" s="4" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="256" s="4" customFormat="1" spans="1:17">
       <c r="A256" s="4" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="N256" s="5" t="s">
         <v>173</v>
@@ -16840,21 +16807,21 @@
         <v>174</v>
       </c>
       <c r="P256" s="4" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="Q256" s="4" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="257" s="4" customFormat="1" spans="1:15">
       <c r="A257" s="4" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="N257" s="5" t="s">
         <v>53</v>
@@ -16865,78 +16832,78 @@
     </row>
     <row r="258" spans="1:14">
       <c r="A258" s="4" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="G258" s="4"/>
       <c r="N258" s="5"/>
     </row>
     <row r="259" s="4" customFormat="1" spans="1:17">
       <c r="A259" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>1467</v>
+      </c>
+      <c r="N259" s="5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="O259" s="4" t="s">
         <v>1469</v>
       </c>
-      <c r="B259" s="4" t="s">
+      <c r="P259" s="4" t="s">
         <v>1470</v>
       </c>
-      <c r="C259" s="4" t="s">
+      <c r="Q259" s="4" t="s">
         <v>1471</v>
-      </c>
-      <c r="D259" s="4" t="s">
-        <v>1472</v>
-      </c>
-      <c r="N259" s="5" t="s">
-        <v>1473</v>
-      </c>
-      <c r="O259" s="4" t="s">
-        <v>1474</v>
-      </c>
-      <c r="P259" s="4" t="s">
-        <v>1475</v>
-      </c>
-      <c r="Q259" s="4" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="260" s="4" customFormat="1" spans="1:17">
       <c r="A260" s="4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>1474</v>
+      </c>
+      <c r="N260" s="5" t="s">
+        <v>1475</v>
+      </c>
+      <c r="O260" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="P260" s="4" t="s">
         <v>1477</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="Q260" s="4" t="s">
         <v>1478</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>1479</v>
-      </c>
-      <c r="N260" s="5" t="s">
-        <v>1480</v>
-      </c>
-      <c r="O260" s="4" t="s">
-        <v>1481</v>
-      </c>
-      <c r="P260" s="4" t="s">
-        <v>1482</v>
-      </c>
-      <c r="Q260" s="4" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="261" s="4" customFormat="1" spans="1:15">
       <c r="A261" s="4" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
       <c r="N261" s="5" t="s">
         <v>42</v>
@@ -16947,16 +16914,16 @@
     </row>
     <row r="262" s="4" customFormat="1" spans="1:15">
       <c r="A262" s="4" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="N262" s="5" t="s">
         <v>173</v>
@@ -16967,51 +16934,51 @@
     </row>
     <row r="263" s="4" customFormat="1" spans="1:19">
       <c r="A263" s="4" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>1490</v>
+      </c>
+      <c r="N263" s="5" t="s">
+        <v>1491</v>
+      </c>
+      <c r="O263" s="4" t="s">
         <v>1492</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="P263" s="4" t="s">
         <v>1493</v>
       </c>
-      <c r="C263" s="4" t="s">
+      <c r="Q263" s="4" t="s">
         <v>1494</v>
       </c>
-      <c r="D263" s="4" t="s">
+      <c r="R263" s="4" t="s">
         <v>1495</v>
       </c>
-      <c r="N263" s="5" t="s">
+      <c r="S263" s="4" t="s">
         <v>1496</v>
-      </c>
-      <c r="O263" s="4" t="s">
-        <v>1497</v>
-      </c>
-      <c r="P263" s="4" t="s">
-        <v>1498</v>
-      </c>
-      <c r="Q263" s="4" t="s">
-        <v>1499</v>
-      </c>
-      <c r="R263" s="4" t="s">
-        <v>1500</v>
-      </c>
-      <c r="S263" s="4" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="264" s="4" customFormat="1" spans="1:15">
       <c r="A264" s="4" t="s">
-        <v>1502</v>
+        <v>1497</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>1503</v>
+        <v>1498</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="N264" s="5" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="O264" s="4" t="s">
         <v>205</v>
@@ -17019,22 +16986,22 @@
     </row>
     <row r="265" s="4" customFormat="1" spans="1:19">
       <c r="A265" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>1504</v>
+      </c>
+      <c r="N265" s="5" t="s">
+        <v>1505</v>
+      </c>
+      <c r="O265" s="4" t="s">
         <v>1506</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>1508</v>
-      </c>
-      <c r="D265" s="4" t="s">
-        <v>1509</v>
-      </c>
-      <c r="N265" s="5" t="s">
-        <v>1510</v>
-      </c>
-      <c r="O265" s="4" t="s">
-        <v>1511</v>
       </c>
       <c r="P265" s="4" t="s">
         <v>42</v>
@@ -17051,25 +17018,25 @@
     </row>
     <row r="266" s="4" customFormat="1" spans="1:15">
       <c r="A266" s="4" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G266" s="4" t="s">
+        <v>1511</v>
+      </c>
+      <c r="H266" s="4" t="s">
         <v>1512</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="I266" s="4" t="s">
         <v>1513</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D266" s="4" t="s">
-        <v>1515</v>
-      </c>
-      <c r="G266" s="4" t="s">
-        <v>1516</v>
-      </c>
-      <c r="H266" s="4" t="s">
-        <v>1517</v>
-      </c>
-      <c r="I266" s="4" t="s">
-        <v>1518</v>
       </c>
       <c r="N266" s="5" t="s">
         <v>44</v>
@@ -17080,45 +17047,45 @@
     </row>
     <row r="267" s="4" customFormat="1" spans="1:19">
       <c r="A267" s="4" t="s">
-        <v>1519</v>
+        <v>1514</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
       <c r="N267" s="5" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="O267" s="4" t="s">
         <v>67</v>
       </c>
       <c r="P267" s="4" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="Q267" s="4" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="R267" s="4" t="s">
         <v>53</v>
       </c>
       <c r="S267" s="4" t="s">
-        <v>1524</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="268" s="4" customFormat="1" spans="1:17">
       <c r="A268" s="4" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="N268" s="5" t="s">
         <v>53</v>
@@ -17135,19 +17102,19 @@
     </row>
     <row r="269" s="4" customFormat="1" spans="1:17">
       <c r="A269" s="4" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="N269" s="5" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="O269" s="4" t="s">
         <v>114</v>
@@ -17161,16 +17128,16 @@
     </row>
     <row r="270" s="4" customFormat="1" spans="1:17">
       <c r="A270" s="4" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="N270" s="5" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="O270" s="4" t="s">
         <v>205</v>
@@ -17184,32 +17151,32 @@
     </row>
     <row r="271" spans="1:14">
       <c r="A271" s="4" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="G271" s="4"/>
       <c r="N271" s="5"/>
     </row>
     <row r="272" s="4" customFormat="1" spans="1:17">
       <c r="A272" s="4" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="N272" s="5" t="s">
         <v>102</v>
@@ -17218,7 +17185,7 @@
         <v>103</v>
       </c>
       <c r="P272" s="4" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="Q272" s="4" t="s">
         <v>174</v>
@@ -17226,34 +17193,34 @@
     </row>
     <row r="273" s="4" customFormat="1" spans="1:23">
       <c r="A273" s="4" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>1544</v>
+      </c>
+      <c r="N273" s="5" t="s">
+        <v>1545</v>
+      </c>
+      <c r="O273" s="4" t="s">
         <v>1546</v>
       </c>
-      <c r="B273" s="4" t="s">
+      <c r="P273" s="4" t="s">
         <v>1547</v>
       </c>
-      <c r="C273" s="4" t="s">
+      <c r="Q273" s="4" t="s">
         <v>1548</v>
       </c>
-      <c r="D273" s="4" t="s">
+      <c r="R273" s="4" t="s">
         <v>1549</v>
       </c>
-      <c r="N273" s="5" t="s">
+      <c r="S273" s="4" t="s">
         <v>1550</v>
-      </c>
-      <c r="O273" s="4" t="s">
-        <v>1551</v>
-      </c>
-      <c r="P273" s="4" t="s">
-        <v>1552</v>
-      </c>
-      <c r="Q273" s="4" t="s">
-        <v>1553</v>
-      </c>
-      <c r="R273" s="4" t="s">
-        <v>1554</v>
-      </c>
-      <c r="S273" s="4" t="s">
-        <v>1555</v>
       </c>
       <c r="T273" s="4" t="s">
         <v>416</v>
@@ -17270,13 +17237,13 @@
     </row>
     <row r="274" s="4" customFormat="1" spans="1:17">
       <c r="A274" s="4" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="N274" s="5" t="s">
         <v>42</v>
@@ -17293,13 +17260,13 @@
     </row>
     <row r="275" s="4" customFormat="1" spans="1:15">
       <c r="A275" s="4" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="N275" s="5" t="s">
         <v>44</v>
@@ -17310,36 +17277,36 @@
     </row>
     <row r="276" s="4" customFormat="1" spans="1:15">
       <c r="A276" s="4" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="N276" s="5" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="O276" s="4" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="277" s="4" customFormat="1" spans="1:15">
       <c r="A277" s="4" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="N277" s="5" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="O277" s="4" t="s">
         <v>299</v>
@@ -17347,13 +17314,13 @@
     </row>
     <row r="278" s="4" customFormat="1" spans="1:17">
       <c r="A278" s="4" t="s">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="N278" s="5" t="s">
         <v>173</v>
@@ -17370,13 +17337,13 @@
     </row>
     <row r="279" s="4" customFormat="1" spans="1:35">
       <c r="A279" s="4" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="N279" s="5" t="s">
         <v>140</v>
@@ -17433,10 +17400,10 @@
         <v>355</v>
       </c>
       <c r="AF279" s="4" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="AG279" s="4" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="AH279" s="4" t="s">
         <v>347</v>
@@ -17447,13 +17414,13 @@
     </row>
     <row r="280" s="4" customFormat="1" spans="1:35">
       <c r="A280" s="4" t="s">
-        <v>1579</v>
+        <v>1574</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="N280" s="5" t="s">
         <v>140</v>
@@ -17510,10 +17477,10 @@
         <v>355</v>
       </c>
       <c r="AF280" s="4" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="AG280" s="4" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="AH280" s="4" t="s">
         <v>347</v>
@@ -17524,13 +17491,13 @@
     </row>
     <row r="281" s="4" customFormat="1" spans="1:35">
       <c r="A281" s="4" t="s">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="N281" s="5" t="s">
         <v>140</v>
@@ -17587,10 +17554,10 @@
         <v>355</v>
       </c>
       <c r="AF281" s="4" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="AG281" s="4" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="AH281" s="4" t="s">
         <v>347</v>
@@ -17601,16 +17568,16 @@
     </row>
     <row r="282" s="4" customFormat="1" spans="1:17">
       <c r="A282" s="4" t="s">
-        <v>1581</v>
+        <v>1576</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>1582</v>
+        <v>1577</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>1583</v>
+        <v>1578</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
       <c r="N282" s="5" t="s">
         <v>140</v>
@@ -17627,16 +17594,16 @@
     </row>
     <row r="283" s="4" customFormat="1" spans="1:21">
       <c r="A283" s="4" t="s">
-        <v>1585</v>
+        <v>1580</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>1586</v>
+        <v>1581</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>1587</v>
+        <v>1582</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>1588</v>
+        <v>1583</v>
       </c>
       <c r="N283" s="5" t="s">
         <v>87</v>
@@ -17665,16 +17632,16 @@
     </row>
     <row r="284" s="4" customFormat="1" spans="1:17">
       <c r="A284" s="4" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>1590</v>
+        <v>1585</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>1592</v>
+        <v>1587</v>
       </c>
       <c r="N284" s="5" t="s">
         <v>64</v>
@@ -17683,7 +17650,7 @@
         <v>65</v>
       </c>
       <c r="P284" s="4" t="s">
-        <v>1593</v>
+        <v>1588</v>
       </c>
       <c r="Q284" s="4" t="s">
         <v>174</v>
@@ -17691,29 +17658,29 @@
     </row>
     <row r="285" spans="1:14">
       <c r="A285" s="4" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>1596</v>
+        <v>1591</v>
       </c>
       <c r="G285" s="4"/>
       <c r="N285" s="5"/>
     </row>
     <row r="286" s="4" customFormat="1" spans="1:15">
       <c r="A286" s="4" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>1598</v>
+        <v>1593</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>1600</v>
+        <v>1595</v>
       </c>
       <c r="N286" s="5" t="s">
         <v>53</v>
@@ -17724,13 +17691,13 @@
     </row>
     <row r="287" s="4" customFormat="1" spans="1:17">
       <c r="A287" s="4" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>1602</v>
+        <v>1597</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="N287" s="5" t="s">
         <v>164</v>
@@ -17747,16 +17714,16 @@
     </row>
     <row r="288" s="4" customFormat="1" spans="1:19">
       <c r="A288" s="4" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
       <c r="N288" s="5" t="s">
         <v>42</v>
@@ -17765,13 +17732,13 @@
         <v>43</v>
       </c>
       <c r="P288" s="4" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="Q288" s="4" t="s">
         <v>714</v>
       </c>
       <c r="R288" s="4" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="S288" s="4" t="s">
         <v>167</v>
@@ -17779,16 +17746,16 @@
     </row>
     <row r="289" s="4" customFormat="1" spans="1:15">
       <c r="A289" s="4" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="N289" s="5" t="s">
         <v>87</v>
@@ -17799,51 +17766,51 @@
     </row>
     <row r="290" s="4" customFormat="1" spans="1:21">
       <c r="A290" s="4" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D290" s="4" t="s">
+        <v>1612</v>
+      </c>
+      <c r="N290" s="5" t="s">
+        <v>1319</v>
+      </c>
+      <c r="O290" s="4" t="s">
+        <v>1613</v>
+      </c>
+      <c r="P290" s="4" t="s">
         <v>1614</v>
       </c>
-      <c r="B290" s="4" t="s">
+      <c r="Q290" s="4" t="s">
         <v>1615</v>
       </c>
-      <c r="C290" s="4" t="s">
+      <c r="R290" s="4" t="s">
         <v>1616</v>
       </c>
-      <c r="D290" s="4" t="s">
+      <c r="S290" s="4" t="s">
         <v>1617</v>
-      </c>
-      <c r="N290" s="5" t="s">
-        <v>1324</v>
-      </c>
-      <c r="O290" s="4" t="s">
-        <v>1618</v>
-      </c>
-      <c r="P290" s="4" t="s">
-        <v>1619</v>
-      </c>
-      <c r="Q290" s="4" t="s">
-        <v>1620</v>
-      </c>
-      <c r="R290" s="4" t="s">
-        <v>1621</v>
-      </c>
-      <c r="S290" s="4" t="s">
-        <v>1622</v>
       </c>
       <c r="T290" s="4" t="s">
         <v>131</v>
       </c>
       <c r="U290" s="4" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="291" s="4" customFormat="1" spans="1:19">
       <c r="A291" s="4" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="N291" s="5" t="s">
         <v>64</v>
@@ -17858,27 +17825,27 @@
         <v>54</v>
       </c>
       <c r="R291" s="4" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="S291" s="4" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="292" s="4" customFormat="1" spans="1:19">
       <c r="A292" s="4" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="N292" s="5" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="O292" s="4" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="P292" s="4" t="s">
         <v>253</v>
@@ -17890,21 +17857,21 @@
         <v>352</v>
       </c>
       <c r="S292" s="4" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="293" s="4" customFormat="1" spans="1:15">
       <c r="A293" s="4" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="N293" s="5" t="s">
         <v>635</v>
@@ -17915,19 +17882,19 @@
     </row>
     <row r="294" s="4" customFormat="1" spans="1:15">
       <c r="A294" s="4" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="N294" s="5" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="O294" s="4" t="s">
         <v>45</v>
@@ -17935,36 +17902,36 @@
     </row>
     <row r="295" s="4" customFormat="1" spans="1:17">
       <c r="A295" s="4" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>1646</v>
+        <v>1641</v>
       </c>
       <c r="N295" s="5" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="O295" s="4" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="P295" s="4" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="Q295" s="4" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="296" s="4" customFormat="1" spans="1:19">
       <c r="A296" s="4" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="N296" s="5" t="s">
         <v>521</v>
@@ -17973,13 +17940,13 @@
         <v>65</v>
       </c>
       <c r="P296" s="4" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="Q296" s="4" t="s">
         <v>222</v>
       </c>
       <c r="R296" s="4" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="S296" s="4" t="s">
         <v>360</v>
@@ -17987,19 +17954,19 @@
     </row>
     <row r="297" s="4" customFormat="1" spans="1:17">
       <c r="A297" s="4" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="N297" s="5" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="O297" s="4" t="s">
         <v>67</v>
@@ -18013,58 +17980,58 @@
     </row>
     <row r="298" spans="1:14">
       <c r="A298" s="4" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="G298" s="4"/>
       <c r="N298" s="5"/>
     </row>
     <row r="299" s="4" customFormat="1" spans="1:15">
       <c r="A299" s="4" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>1663</v>
+        <v>1658</v>
       </c>
       <c r="N299" s="5" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="O299" s="4" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="300" s="4" customFormat="1" spans="1:17">
       <c r="A300" s="4" t="s">
-        <v>1665</v>
+        <v>1660</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>1666</v>
+        <v>1661</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>1667</v>
+        <v>1662</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>1668</v>
+        <v>1663</v>
       </c>
       <c r="N300" s="5" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="O300" s="4" t="s">
         <v>54</v>
       </c>
       <c r="P300" s="4" t="s">
-        <v>1670</v>
+        <v>1665</v>
       </c>
       <c r="Q300" s="4" t="s">
         <v>67</v>
@@ -18072,16 +18039,16 @@
     </row>
     <row r="301" s="4" customFormat="1" spans="1:15">
       <c r="A301" s="4" t="s">
-        <v>1671</v>
+        <v>1666</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>1672</v>
+        <v>1667</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>1673</v>
+        <v>1668</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="N301" s="5" t="s">
         <v>53</v>
@@ -18092,16 +18059,16 @@
     </row>
     <row r="302" s="4" customFormat="1" spans="1:17">
       <c r="A302" s="4" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>1676</v>
+        <v>1671</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>1678</v>
+        <v>1673</v>
       </c>
       <c r="N302" s="5" t="s">
         <v>635</v>
@@ -18118,16 +18085,16 @@
     </row>
     <row r="303" s="4" customFormat="1" spans="1:15">
       <c r="A303" s="4" t="s">
-        <v>1679</v>
+        <v>1674</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>1680</v>
+        <v>1675</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="N303" s="5" t="s">
         <v>164</v>
@@ -18138,16 +18105,16 @@
     </row>
     <row r="304" s="4" customFormat="1" spans="1:15">
       <c r="A304" s="4" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="N304" s="5" t="s">
         <v>456</v>
@@ -18158,16 +18125,16 @@
     </row>
     <row r="305" s="4" customFormat="1" spans="1:17">
       <c r="A305" s="4" t="s">
-        <v>1687</v>
+        <v>1682</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>1689</v>
+        <v>1684</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>1690</v>
+        <v>1685</v>
       </c>
       <c r="N305" s="5" t="s">
         <v>521</v>
@@ -18176,27 +18143,27 @@
         <v>65</v>
       </c>
       <c r="P305" s="4" t="s">
-        <v>1691</v>
+        <v>1686</v>
       </c>
       <c r="Q305" s="4" t="s">
-        <v>1524</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="306" s="4" customFormat="1" spans="1:15">
       <c r="A306" s="4" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>1693</v>
+        <v>1688</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
       <c r="N306" s="5" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="O306" s="4" t="s">
         <v>205</v>
@@ -18204,16 +18171,16 @@
     </row>
     <row r="307" s="4" customFormat="1" spans="1:17">
       <c r="A307" s="4" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>1697</v>
+        <v>1692</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>1699</v>
+        <v>1694</v>
       </c>
       <c r="N307" s="5" t="s">
         <v>414</v>
@@ -18222,7 +18189,7 @@
         <v>43</v>
       </c>
       <c r="P307" s="4" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="Q307" s="4" t="s">
         <v>65</v>
@@ -18230,16 +18197,16 @@
     </row>
     <row r="308" s="4" customFormat="1" spans="1:15">
       <c r="A308" s="4" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>1702</v>
+        <v>1697</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>1703</v>
+        <v>1698</v>
       </c>
       <c r="N308" s="5" t="s">
-        <v>1704</v>
+        <v>1699</v>
       </c>
       <c r="O308" s="4" t="s">
         <v>88</v>
@@ -18247,16 +18214,16 @@
     </row>
     <row r="309" s="4" customFormat="1" spans="1:15">
       <c r="A309" s="4" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>1707</v>
+        <v>1702</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
       <c r="N309" s="5" t="s">
         <v>113</v>
@@ -18267,29 +18234,29 @@
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="4" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>1711</v>
+        <v>1706</v>
       </c>
       <c r="G310" s="4"/>
       <c r="N310" s="5"/>
     </row>
     <row r="311" s="4" customFormat="1" spans="1:19">
       <c r="A311" s="4" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>1713</v>
+        <v>1708</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>1714</v>
+        <v>1709</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>1715</v>
+        <v>1710</v>
       </c>
       <c r="N311" s="5" t="s">
         <v>44</v>
@@ -18301,27 +18268,27 @@
         <v>343</v>
       </c>
       <c r="Q311" s="4" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="R311" s="4" t="s">
-        <v>1716</v>
+        <v>1711</v>
       </c>
       <c r="S311" s="4" t="s">
-        <v>1717</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="312" s="4" customFormat="1" spans="1:17">
       <c r="A312" s="4" t="s">
-        <v>1718</v>
+        <v>1713</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>1719</v>
+        <v>1714</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
       <c r="N312" s="5" t="s">
-        <v>1721</v>
+        <v>1716</v>
       </c>
       <c r="O312" s="4" t="s">
         <v>360</v>
@@ -18335,16 +18302,16 @@
     </row>
     <row r="313" s="4" customFormat="1" spans="1:17">
       <c r="A313" s="4" t="s">
-        <v>1722</v>
+        <v>1717</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="N313" s="5" t="s">
         <v>414</v>
@@ -18353,21 +18320,21 @@
         <v>43</v>
       </c>
       <c r="P313" s="4" t="s">
-        <v>1510</v>
+        <v>1505</v>
       </c>
       <c r="Q313" s="4" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="314" s="4" customFormat="1" spans="1:15">
       <c r="A314" s="4" t="s">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>1727</v>
+        <v>1722</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
       <c r="N314" s="5" t="s">
         <v>204</v>
@@ -18378,13 +18345,13 @@
     </row>
     <row r="315" s="4" customFormat="1" spans="1:21">
       <c r="A315" s="4" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>1730</v>
+        <v>1725</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="N315" s="5" t="s">
         <v>164</v>
@@ -18413,16 +18380,16 @@
     </row>
     <row r="316" s="4" customFormat="1" spans="1:21">
       <c r="A316" s="4" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>1735</v>
+        <v>1730</v>
       </c>
       <c r="N316" s="5" t="s">
         <v>42</v>
@@ -18451,13 +18418,13 @@
     </row>
     <row r="317" s="4" customFormat="1" spans="1:15">
       <c r="A317" s="4" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>1737</v>
+        <v>1732</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="N317" s="5" t="s">
         <v>87</v>
@@ -18468,25 +18435,25 @@
     </row>
     <row r="318" s="4" customFormat="1" spans="1:17">
       <c r="A318" s="4" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D318" s="4" t="s">
+        <v>1737</v>
+      </c>
+      <c r="N318" s="5" t="s">
+        <v>1738</v>
+      </c>
+      <c r="O318" s="4" t="s">
         <v>1739</v>
       </c>
-      <c r="B318" s="4" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C318" s="4" t="s">
-        <v>1741</v>
-      </c>
-      <c r="D318" s="4" t="s">
-        <v>1742</v>
-      </c>
-      <c r="N318" s="5" t="s">
-        <v>1743</v>
-      </c>
-      <c r="O318" s="4" t="s">
-        <v>1744</v>
-      </c>
       <c r="P318" s="4" t="s">
-        <v>1500</v>
+        <v>1495</v>
       </c>
       <c r="Q318" s="4" t="s">
         <v>305</v>
@@ -18494,16 +18461,16 @@
     </row>
     <row r="319" s="4" customFormat="1" spans="1:15">
       <c r="A319" s="4" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>1746</v>
+        <v>1741</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>1747</v>
+        <v>1742</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="N319" s="5" t="s">
         <v>164</v>
@@ -18514,16 +18481,16 @@
     </row>
     <row r="320" s="4" customFormat="1" spans="1:17">
       <c r="A320" s="4" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>1750</v>
+        <v>1745</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>1751</v>
+        <v>1746</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="N320" s="5" t="s">
         <v>204</v>
@@ -18532,24 +18499,24 @@
         <v>205</v>
       </c>
       <c r="P320" s="4" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="Q320" s="4" t="s">
-        <v>1754</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="321" s="4" customFormat="1" spans="1:19">
       <c r="A321" s="4" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>1757</v>
+        <v>1752</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>1758</v>
+        <v>1753</v>
       </c>
       <c r="N321" s="5" t="s">
         <v>87</v>
@@ -18564,21 +18531,21 @@
         <v>174</v>
       </c>
       <c r="R321" s="4" t="s">
-        <v>1759</v>
+        <v>1754</v>
       </c>
       <c r="S321" s="4" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="322" s="4" customFormat="1" spans="1:17">
       <c r="A322" s="4" t="s">
-        <v>1761</v>
+        <v>1756</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>1762</v>
+        <v>1757</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>1763</v>
+        <v>1758</v>
       </c>
       <c r="N322" s="5" t="s">
         <v>44</v>
@@ -18587,24 +18554,24 @@
         <v>45</v>
       </c>
       <c r="P322" s="4" t="s">
-        <v>1764</v>
+        <v>1759</v>
       </c>
       <c r="Q322" s="4" t="s">
-        <v>1765</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="323" s="4" customFormat="1" spans="1:17">
       <c r="A323" s="4" t="s">
-        <v>1766</v>
+        <v>1761</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>1767</v>
+        <v>1762</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>1768</v>
+        <v>1763</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>1769</v>
+        <v>1764</v>
       </c>
       <c r="N323" s="5" t="s">
         <v>68</v>
@@ -18621,54 +18588,54 @@
     </row>
     <row r="324" s="4" customFormat="1" spans="1:21">
       <c r="A324" s="4" t="s">
-        <v>1770</v>
+        <v>1765</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>1771</v>
+        <v>1766</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>1772</v>
+        <v>1767</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>1773</v>
+        <v>1768</v>
       </c>
       <c r="N324" s="5" t="s">
-        <v>1774</v>
+        <v>1769</v>
       </c>
       <c r="O324" s="4" t="s">
         <v>360</v>
       </c>
       <c r="P324" s="4" t="s">
-        <v>1775</v>
+        <v>1770</v>
       </c>
       <c r="Q324" s="4" t="s">
         <v>65</v>
       </c>
       <c r="R324" s="4" t="s">
-        <v>1776</v>
+        <v>1771</v>
       </c>
       <c r="S324" s="4" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="T324" s="4" t="s">
-        <v>1777</v>
+        <v>1772</v>
       </c>
       <c r="U324" s="4" t="s">
-        <v>1778</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="325" s="4" customFormat="1" spans="1:15">
       <c r="A325" s="4" t="s">
-        <v>1779</v>
+        <v>1774</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>1780</v>
+        <v>1775</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>1781</v>
+        <v>1776</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>1782</v>
+        <v>1777</v>
       </c>
       <c r="N325" s="5" t="s">
         <v>44</v>
@@ -18679,16 +18646,16 @@
     </row>
     <row r="326" s="4" customFormat="1" spans="1:15">
       <c r="A326" s="4" t="s">
-        <v>1783</v>
+        <v>1778</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>1784</v>
+        <v>1779</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>1785</v>
+        <v>1780</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>1786</v>
+        <v>1781</v>
       </c>
       <c r="N326" s="5" t="s">
         <v>164</v>
@@ -18699,16 +18666,16 @@
     </row>
     <row r="327" s="4" customFormat="1" spans="1:15">
       <c r="A327" s="4" t="s">
-        <v>1787</v>
+        <v>1782</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>1788</v>
+        <v>1783</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>1789</v>
+        <v>1784</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>1790</v>
+        <v>1785</v>
       </c>
       <c r="N327" s="5" t="s">
         <v>204</v>
@@ -18719,13 +18686,13 @@
     </row>
     <row r="328" s="4" customFormat="1" spans="1:15">
       <c r="A328" s="4" t="s">
-        <v>1791</v>
+        <v>1786</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>1793</v>
+        <v>1788</v>
       </c>
       <c r="N328" s="5" t="s">
         <v>87</v>
@@ -18736,13 +18703,13 @@
     </row>
     <row r="329" s="4" customFormat="1" spans="1:17">
       <c r="A329" s="4" t="s">
-        <v>1794</v>
+        <v>1789</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>1795</v>
+        <v>1790</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>1796</v>
+        <v>1791</v>
       </c>
       <c r="N329" s="5" t="s">
         <v>304</v>
@@ -18751,27 +18718,27 @@
         <v>305</v>
       </c>
       <c r="P329" s="4" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="Q329" s="4" t="s">
-        <v>1798</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="330" s="4" customFormat="1" spans="1:17">
       <c r="A330" s="4" t="s">
-        <v>1799</v>
+        <v>1794</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>1800</v>
+        <v>1795</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>1801</v>
+        <v>1796</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>1802</v>
+        <v>1797</v>
       </c>
       <c r="N330" s="5" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="O330" s="4" t="s">
         <v>205</v>
@@ -18785,19 +18752,19 @@
     </row>
     <row r="331" s="4" customFormat="1" spans="1:15">
       <c r="A331" s="4" t="s">
-        <v>1803</v>
+        <v>1798</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>1804</v>
+        <v>1799</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>1805</v>
+        <v>1800</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>1806</v>
+        <v>1801</v>
       </c>
       <c r="N331" s="5" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="O331" s="4" t="s">
         <v>65</v>
@@ -18805,602 +18772,602 @@
     </row>
     <row r="332" spans="1:14">
       <c r="A332" s="4" t="s">
-        <v>1807</v>
+        <v>1802</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>1808</v>
+        <v>1803</v>
       </c>
       <c r="G332" s="4"/>
       <c r="N332" s="5"/>
     </row>
     <row r="333" spans="1:14">
       <c r="A333" s="4" t="s">
-        <v>1809</v>
+        <v>1804</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>1810</v>
+        <v>1805</v>
       </c>
       <c r="G333" s="4"/>
       <c r="N333" s="5"/>
     </row>
     <row r="334" spans="1:14">
       <c r="A334" s="4" t="s">
-        <v>1811</v>
+        <v>1806</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="G334" s="4"/>
       <c r="N334" s="5"/>
     </row>
     <row r="335" spans="1:14">
       <c r="A335" s="4" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
       <c r="G335" s="4"/>
       <c r="N335" s="5"/>
     </row>
     <row r="336" spans="1:14">
       <c r="A336" s="4" t="s">
-        <v>1815</v>
+        <v>1810</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>1816</v>
+        <v>1811</v>
       </c>
       <c r="G336" s="4"/>
       <c r="N336" s="5"/>
     </row>
     <row r="337" spans="1:14">
       <c r="A337" s="4" t="s">
-        <v>1817</v>
+        <v>1812</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>1818</v>
+        <v>1813</v>
       </c>
       <c r="G337" s="4"/>
       <c r="N337" s="5"/>
     </row>
     <row r="338" spans="1:14">
       <c r="A338" s="4" t="s">
-        <v>1819</v>
+        <v>1814</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
       <c r="G338" s="4"/>
       <c r="N338" s="5"/>
     </row>
     <row r="339" spans="1:14">
       <c r="A339" s="4" t="s">
-        <v>1821</v>
+        <v>1816</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>1822</v>
+        <v>1817</v>
       </c>
       <c r="G339" s="4"/>
       <c r="N339" s="5"/>
     </row>
     <row r="340" spans="1:14">
       <c r="A340" s="4" t="s">
-        <v>1823</v>
+        <v>1818</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>1824</v>
+        <v>1819</v>
       </c>
       <c r="G340" s="4"/>
       <c r="N340" s="5"/>
     </row>
     <row r="341" spans="1:14">
       <c r="A341" s="4" t="s">
-        <v>1825</v>
+        <v>1820</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>1826</v>
+        <v>1821</v>
       </c>
       <c r="G341" s="4"/>
       <c r="N341" s="5"/>
     </row>
     <row r="342" spans="1:14">
       <c r="A342" s="4" t="s">
-        <v>1827</v>
+        <v>1822</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>1828</v>
+        <v>1823</v>
       </c>
       <c r="G342" s="4"/>
       <c r="N342" s="5"/>
     </row>
     <row r="343" spans="1:14">
       <c r="A343" s="4" t="s">
-        <v>1829</v>
+        <v>1824</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>1830</v>
+        <v>1825</v>
       </c>
       <c r="G343" s="4"/>
       <c r="N343" s="5"/>
     </row>
     <row r="344" spans="1:14">
       <c r="A344" s="4" t="s">
-        <v>1831</v>
+        <v>1826</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>1832</v>
+        <v>1827</v>
       </c>
       <c r="G344" s="4"/>
       <c r="N344" s="5"/>
     </row>
     <row r="345" spans="1:14">
       <c r="A345" s="4" t="s">
-        <v>1833</v>
+        <v>1828</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>1834</v>
+        <v>1829</v>
       </c>
       <c r="G345" s="4"/>
       <c r="N345" s="5"/>
     </row>
     <row r="346" spans="1:14">
       <c r="A346" s="4" t="s">
-        <v>1835</v>
+        <v>1830</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>1836</v>
+        <v>1831</v>
       </c>
       <c r="G346" s="4"/>
       <c r="N346" s="5"/>
     </row>
     <row r="347" spans="1:14">
       <c r="A347" s="4" t="s">
-        <v>1837</v>
+        <v>1832</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>1838</v>
+        <v>1833</v>
       </c>
       <c r="G347" s="4"/>
       <c r="N347" s="5"/>
     </row>
     <row r="348" spans="1:14">
       <c r="A348" s="4" t="s">
-        <v>1839</v>
+        <v>1834</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>1840</v>
+        <v>1835</v>
       </c>
       <c r="G348" s="4"/>
       <c r="N348" s="5"/>
     </row>
     <row r="349" spans="1:14">
       <c r="A349" s="4" t="s">
-        <v>1841</v>
+        <v>1836</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>1842</v>
+        <v>1837</v>
       </c>
       <c r="G349" s="4"/>
       <c r="N349" s="5"/>
     </row>
     <row r="350" spans="1:14">
       <c r="A350" s="4" t="s">
-        <v>1843</v>
+        <v>1838</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>1844</v>
+        <v>1839</v>
       </c>
       <c r="G350" s="4"/>
       <c r="N350" s="5"/>
     </row>
     <row r="351" spans="1:14">
       <c r="A351" s="4" t="s">
-        <v>1845</v>
+        <v>1840</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>1846</v>
+        <v>1841</v>
       </c>
       <c r="G351" s="4"/>
       <c r="N351" s="5"/>
     </row>
     <row r="352" spans="1:14">
       <c r="A352" s="4" t="s">
-        <v>1847</v>
+        <v>1842</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>1848</v>
+        <v>1843</v>
       </c>
       <c r="G352" s="4"/>
       <c r="N352" s="5"/>
     </row>
     <row r="353" spans="1:14">
       <c r="A353" s="4" t="s">
-        <v>1849</v>
+        <v>1844</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>1850</v>
+        <v>1845</v>
       </c>
       <c r="G353" s="4"/>
       <c r="N353" s="5"/>
     </row>
     <row r="354" spans="1:14">
       <c r="A354" s="4" t="s">
-        <v>1851</v>
+        <v>1846</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="G354" s="4"/>
       <c r="N354" s="5"/>
     </row>
     <row r="355" spans="1:14">
       <c r="A355" s="4" t="s">
-        <v>1852</v>
+        <v>1847</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>1853</v>
+        <v>1848</v>
       </c>
       <c r="G355" s="4"/>
       <c r="N355" s="5"/>
     </row>
     <row r="356" spans="1:14">
       <c r="A356" s="4" t="s">
-        <v>1854</v>
+        <v>1849</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>1855</v>
+        <v>1850</v>
       </c>
       <c r="G356" s="4"/>
       <c r="N356" s="5"/>
     </row>
     <row r="357" spans="1:14">
       <c r="A357" s="4" t="s">
-        <v>1856</v>
+        <v>1851</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>1857</v>
+        <v>1852</v>
       </c>
       <c r="G357" s="4"/>
       <c r="N357" s="5"/>
     </row>
     <row r="358" spans="1:14">
       <c r="A358" s="4" t="s">
-        <v>1858</v>
+        <v>1853</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>1859</v>
+        <v>1854</v>
       </c>
       <c r="G358" s="4"/>
       <c r="N358" s="5"/>
     </row>
     <row r="359" spans="1:14">
       <c r="A359" s="4" t="s">
-        <v>1860</v>
+        <v>1855</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="G359" s="4"/>
       <c r="N359" s="5"/>
     </row>
     <row r="360" spans="1:14">
       <c r="A360" s="4" t="s">
-        <v>1862</v>
+        <v>1857</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>1863</v>
+        <v>1858</v>
       </c>
       <c r="G360" s="4"/>
       <c r="N360" s="5"/>
     </row>
     <row r="361" spans="1:14">
       <c r="A361" s="4" t="s">
-        <v>1864</v>
+        <v>1859</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>1842</v>
+        <v>1837</v>
       </c>
       <c r="G361" s="4"/>
       <c r="N361" s="5"/>
     </row>
     <row r="362" spans="1:14">
       <c r="A362" s="4" t="s">
-        <v>1865</v>
+        <v>1860</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>1866</v>
+        <v>1861</v>
       </c>
       <c r="G362" s="4"/>
       <c r="N362" s="5"/>
     </row>
     <row r="363" spans="1:14">
       <c r="A363" s="4" t="s">
-        <v>1867</v>
+        <v>1862</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>1868</v>
+        <v>1863</v>
       </c>
       <c r="G363" s="4"/>
       <c r="N363" s="5"/>
     </row>
     <row r="364" spans="1:14">
       <c r="A364" s="4" t="s">
-        <v>1869</v>
+        <v>1864</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>1870</v>
+        <v>1865</v>
       </c>
       <c r="G364" s="4"/>
       <c r="N364" s="5"/>
     </row>
     <row r="365" spans="1:14">
       <c r="A365" s="4" t="s">
-        <v>1871</v>
+        <v>1866</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>1872</v>
+        <v>1867</v>
       </c>
       <c r="G365" s="4"/>
       <c r="N365" s="5"/>
     </row>
     <row r="366" spans="1:14">
       <c r="A366" s="4" t="s">
-        <v>1873</v>
+        <v>1868</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>1874</v>
+        <v>1869</v>
       </c>
       <c r="G366" s="4"/>
       <c r="N366" s="5"/>
     </row>
     <row r="367" spans="1:14">
       <c r="A367" s="4" t="s">
-        <v>1875</v>
+        <v>1870</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>1876</v>
+        <v>1871</v>
       </c>
       <c r="G367" s="4"/>
       <c r="N367" s="5"/>
     </row>
     <row r="368" spans="1:14">
       <c r="A368" s="4" t="s">
-        <v>1877</v>
+        <v>1872</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>1878</v>
+        <v>1873</v>
       </c>
       <c r="G368" s="4"/>
       <c r="N368" s="5"/>
     </row>
     <row r="369" spans="1:14">
       <c r="A369" s="4" t="s">
-        <v>1879</v>
+        <v>1874</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>1880</v>
+        <v>1875</v>
       </c>
       <c r="G369" s="4"/>
       <c r="N369" s="5"/>
     </row>
     <row r="370" spans="1:14">
       <c r="A370" s="4" t="s">
-        <v>1881</v>
+        <v>1876</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>1882</v>
+        <v>1877</v>
       </c>
       <c r="G370" s="4"/>
       <c r="N370" s="5"/>
     </row>
     <row r="371" spans="1:14">
       <c r="A371" s="4" t="s">
-        <v>1883</v>
+        <v>1878</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>1884</v>
+        <v>1879</v>
       </c>
       <c r="G371" s="4"/>
       <c r="N371" s="5"/>
     </row>
     <row r="372" s="5" customFormat="1" spans="1:19">
       <c r="A372" s="5" t="s">
-        <v>1885</v>
+        <v>1880</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>1886</v>
+        <v>1881</v>
       </c>
       <c r="N372" s="5" t="s">
-        <v>1887</v>
+        <v>1882</v>
       </c>
       <c r="O372" s="5" t="s">
-        <v>1888</v>
+        <v>1883</v>
       </c>
       <c r="P372" s="5" t="s">
         <v>166</v>
       </c>
       <c r="Q372" s="4" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="R372" s="5" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="S372" s="4" t="s">
-        <v>1754</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="373" spans="1:14">
       <c r="A373" s="4" t="s">
-        <v>1890</v>
+        <v>1885</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>1891</v>
+        <v>1886</v>
       </c>
       <c r="G373" s="4"/>
       <c r="N373" s="5"/>
     </row>
     <row r="374" spans="1:14">
       <c r="A374" s="4" t="s">
-        <v>1892</v>
+        <v>1887</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>1893</v>
+        <v>1888</v>
       </c>
       <c r="G374" s="4"/>
       <c r="N374" s="5"/>
     </row>
     <row r="375" spans="1:14">
       <c r="A375" s="4" t="s">
-        <v>1894</v>
+        <v>1889</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>1895</v>
+        <v>1890</v>
       </c>
       <c r="G375" s="4"/>
       <c r="N375" s="5"/>
     </row>
     <row r="376" s="5" customFormat="1" spans="1:17">
       <c r="A376" s="5" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>1892</v>
+      </c>
+      <c r="N376" s="5" t="s">
+        <v>1893</v>
+      </c>
+      <c r="O376" s="4" t="s">
+        <v>1894</v>
+      </c>
+      <c r="P376" s="5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="Q376" s="4" t="s">
         <v>1896</v>
-      </c>
-      <c r="B376" s="5" t="s">
-        <v>1897</v>
-      </c>
-      <c r="N376" s="5" t="s">
-        <v>1898</v>
-      </c>
-      <c r="O376" s="4" t="s">
-        <v>1899</v>
-      </c>
-      <c r="P376" s="5" t="s">
-        <v>1900</v>
-      </c>
-      <c r="Q376" s="4" t="s">
-        <v>1901</v>
       </c>
     </row>
     <row r="377" s="5" customFormat="1" spans="1:23">
       <c r="A377" s="5" t="s">
-        <v>1902</v>
+        <v>1897</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="N377" s="5" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="O377" s="4" t="s">
-        <v>1904</v>
+        <v>1899</v>
       </c>
       <c r="P377" s="5" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="Q377" s="4" t="s">
-        <v>1905</v>
+        <v>1900</v>
       </c>
       <c r="R377" s="5" t="s">
         <v>414</v>
       </c>
       <c r="S377" s="4" t="s">
-        <v>1906</v>
+        <v>1901</v>
       </c>
       <c r="T377" s="5" t="s">
-        <v>1907</v>
+        <v>1902</v>
       </c>
       <c r="U377" s="4" t="s">
-        <v>1908</v>
+        <v>1903</v>
       </c>
       <c r="V377" s="5" t="s">
-        <v>1909</v>
+        <v>1904</v>
       </c>
       <c r="W377" s="4" t="s">
-        <v>1910</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="378" s="4" customFormat="1" spans="1:2">
       <c r="A378" s="4" t="s">
-        <v>1911</v>
+        <v>1906</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>1912</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="379" spans="1:14">
       <c r="A379" s="4" t="s">
-        <v>1913</v>
+        <v>1908</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>1914</v>
+        <v>1909</v>
       </c>
       <c r="G379" s="4"/>
       <c r="N379" s="5"/>
     </row>
     <row r="380" spans="1:14">
       <c r="A380" s="4" t="s">
-        <v>1915</v>
+        <v>1910</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>1916</v>
+        <v>1911</v>
       </c>
       <c r="G380" s="4"/>
       <c r="N380" s="5"/>
     </row>
     <row r="381" spans="1:14">
       <c r="A381" s="4" t="s">
-        <v>1917</v>
+        <v>1912</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>1918</v>
+        <v>1913</v>
       </c>
       <c r="G381" s="4"/>
       <c r="N381" s="5"/>
     </row>
     <row r="382" spans="1:14">
       <c r="A382" s="4" t="s">
-        <v>1919</v>
+        <v>1914</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>1920</v>
+        <v>1915</v>
       </c>
       <c r="G382" s="4"/>
       <c r="N382" s="5"/>
     </row>
     <row r="383" spans="1:14">
       <c r="A383" s="4" t="s">
-        <v>1921</v>
+        <v>1916</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>1922</v>
+        <v>1917</v>
       </c>
       <c r="G383" s="4"/>
       <c r="N383" s="5"/>
     </row>
     <row r="384" spans="1:14">
       <c r="A384" s="4" t="s">
-        <v>1923</v>
+        <v>1918</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>1924</v>
+        <v>1919</v>
       </c>
       <c r="G384" s="4"/>
       <c r="N384" s="5"/>
     </row>
     <row r="385" spans="1:14">
       <c r="A385" s="4" t="s">
-        <v>1925</v>
+        <v>1920</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>1926</v>
+        <v>1921</v>
       </c>
       <c r="G385" s="4"/>
       <c r="N385" s="5"/>
     </row>
     <row r="386" s="5" customFormat="1" spans="1:19">
       <c r="A386" s="5" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>1928</v>
+        <v>1923</v>
       </c>
       <c r="N386" s="5" t="s">
         <v>414</v>
@@ -19415,7 +19382,7 @@
         <v>47</v>
       </c>
       <c r="R386" s="5" t="s">
-        <v>1898</v>
+        <v>1893</v>
       </c>
       <c r="S386" s="4" t="s">
         <v>346</v>
@@ -19423,2363 +19390,2363 @@
     </row>
     <row r="387" spans="1:14">
       <c r="A387" s="4" t="s">
-        <v>1929</v>
+        <v>1924</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>1930</v>
+        <v>1925</v>
       </c>
       <c r="G387" s="4"/>
       <c r="N387" s="5"/>
     </row>
     <row r="388" spans="1:14">
       <c r="A388" s="4" t="s">
-        <v>1931</v>
+        <v>1926</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>1932</v>
+        <v>1927</v>
       </c>
       <c r="G388" s="4"/>
       <c r="N388" s="5"/>
     </row>
     <row r="389" spans="1:14">
       <c r="A389" s="4" t="s">
-        <v>1933</v>
+        <v>1928</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>1934</v>
+        <v>1929</v>
       </c>
       <c r="G389" s="4"/>
       <c r="N389" s="5"/>
     </row>
     <row r="390" spans="1:14">
       <c r="A390" s="4" t="s">
-        <v>1935</v>
+        <v>1930</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>1936</v>
+        <v>1931</v>
       </c>
       <c r="G390" s="4"/>
       <c r="N390" s="5"/>
     </row>
     <row r="391" spans="1:14">
       <c r="A391" s="4" t="s">
-        <v>1937</v>
+        <v>1932</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>1938</v>
+        <v>1933</v>
       </c>
       <c r="G391" s="4"/>
       <c r="N391" s="5"/>
     </row>
     <row r="392" spans="1:14">
       <c r="A392" s="4" t="s">
-        <v>1939</v>
+        <v>1934</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>1940</v>
+        <v>1935</v>
       </c>
       <c r="G392" s="4"/>
       <c r="N392" s="5"/>
     </row>
     <row r="393" spans="1:14">
       <c r="A393" s="4" t="s">
-        <v>1941</v>
+        <v>1936</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>1942</v>
+        <v>1937</v>
       </c>
       <c r="G393" s="4"/>
       <c r="N393" s="5"/>
     </row>
     <row r="394" spans="1:14">
       <c r="A394" s="4" t="s">
-        <v>1943</v>
+        <v>1938</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>1944</v>
+        <v>1939</v>
       </c>
       <c r="G394" s="4"/>
       <c r="N394" s="5"/>
     </row>
     <row r="395" spans="1:14">
       <c r="A395" s="4" t="s">
-        <v>1945</v>
+        <v>1940</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>1946</v>
+        <v>1941</v>
       </c>
       <c r="G395" s="4"/>
       <c r="N395" s="5"/>
     </row>
     <row r="396" spans="1:14">
       <c r="A396" s="4" t="s">
-        <v>1947</v>
+        <v>1942</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>1948</v>
+        <v>1943</v>
       </c>
       <c r="G396" s="4"/>
       <c r="N396" s="5"/>
     </row>
     <row r="397" spans="1:14">
       <c r="A397" s="4" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>1950</v>
+        <v>1945</v>
       </c>
       <c r="G397" s="4"/>
       <c r="N397" s="5"/>
     </row>
     <row r="398" spans="1:14">
       <c r="A398" s="4" t="s">
-        <v>1951</v>
+        <v>1946</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>1952</v>
+        <v>1947</v>
       </c>
       <c r="G398" s="4"/>
       <c r="N398" s="5"/>
     </row>
     <row r="399" spans="1:14">
       <c r="A399" s="4" t="s">
-        <v>1953</v>
+        <v>1948</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="G399" s="4"/>
       <c r="N399" s="5"/>
     </row>
     <row r="400" spans="1:14">
       <c r="A400" s="4" t="s">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>1956</v>
+        <v>1951</v>
       </c>
       <c r="G400" s="4"/>
       <c r="N400" s="5"/>
     </row>
     <row r="401" spans="1:14">
       <c r="A401" s="4" t="s">
-        <v>1957</v>
+        <v>1952</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>1958</v>
+        <v>1953</v>
       </c>
       <c r="G401" s="4"/>
       <c r="N401" s="5"/>
     </row>
     <row r="402" spans="1:14">
       <c r="A402" s="4" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="G402" s="4"/>
       <c r="N402" s="5"/>
     </row>
     <row r="403" spans="1:14">
       <c r="A403" s="4" t="s">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>1962</v>
+        <v>1957</v>
       </c>
       <c r="G403" s="4"/>
       <c r="N403" s="5"/>
     </row>
     <row r="404" spans="1:14">
       <c r="A404" s="4" t="s">
-        <v>1963</v>
+        <v>1958</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="G404" s="4"/>
       <c r="N404" s="5"/>
     </row>
     <row r="405" spans="1:14">
       <c r="A405" s="4" t="s">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>1966</v>
+        <v>1961</v>
       </c>
       <c r="G405" s="4"/>
       <c r="N405" s="5"/>
     </row>
     <row r="406" spans="1:14">
       <c r="A406" s="4" t="s">
-        <v>1967</v>
+        <v>1962</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="G406" s="4"/>
       <c r="N406" s="5"/>
     </row>
     <row r="407" spans="1:14">
       <c r="A407" s="4" t="s">
-        <v>1969</v>
+        <v>1964</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>1970</v>
+        <v>1965</v>
       </c>
       <c r="G407" s="4"/>
       <c r="N407" s="5"/>
     </row>
     <row r="408" spans="1:14">
       <c r="A408" s="4" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>1972</v>
+        <v>1967</v>
       </c>
       <c r="G408" s="4"/>
       <c r="N408" s="5"/>
     </row>
     <row r="409" spans="1:14">
       <c r="A409" s="4" t="s">
-        <v>1973</v>
+        <v>1968</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>1974</v>
+        <v>1969</v>
       </c>
       <c r="G409" s="4"/>
       <c r="N409" s="5"/>
     </row>
     <row r="410" spans="1:14">
       <c r="A410" s="4" t="s">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>1976</v>
+        <v>1971</v>
       </c>
       <c r="G410" s="4"/>
       <c r="N410" s="5"/>
     </row>
     <row r="411" spans="1:14">
       <c r="A411" s="4" t="s">
-        <v>1977</v>
+        <v>1972</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>1978</v>
+        <v>1973</v>
       </c>
       <c r="G411" s="4"/>
       <c r="N411" s="5"/>
     </row>
     <row r="412" spans="1:14">
       <c r="A412" s="4" t="s">
-        <v>1979</v>
+        <v>1974</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>1980</v>
+        <v>1975</v>
       </c>
       <c r="G412" s="4"/>
       <c r="N412" s="5"/>
     </row>
     <row r="413" spans="1:14">
       <c r="A413" s="4" t="s">
-        <v>1981</v>
+        <v>1976</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>1982</v>
+        <v>1977</v>
       </c>
       <c r="G413" s="4"/>
       <c r="N413" s="5"/>
     </row>
     <row r="414" spans="1:14">
       <c r="A414" s="4" t="s">
-        <v>1983</v>
+        <v>1978</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>1984</v>
+        <v>1979</v>
       </c>
       <c r="G414" s="4"/>
       <c r="N414" s="5"/>
     </row>
     <row r="415" spans="1:14">
       <c r="A415" s="4" t="s">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>1986</v>
+        <v>1981</v>
       </c>
       <c r="G415" s="4"/>
       <c r="N415" s="5"/>
     </row>
     <row r="416" spans="1:14">
       <c r="A416" s="4" t="s">
-        <v>1987</v>
+        <v>1982</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="G416" s="4"/>
       <c r="N416" s="5"/>
     </row>
     <row r="417" spans="1:14">
       <c r="A417" s="4" t="s">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>1990</v>
+        <v>1985</v>
       </c>
       <c r="G417" s="4"/>
       <c r="N417" s="5"/>
     </row>
     <row r="418" spans="1:14">
       <c r="A418" s="4" t="s">
-        <v>1991</v>
+        <v>1986</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="G418" s="4"/>
       <c r="N418" s="5"/>
     </row>
     <row r="419" spans="1:14">
       <c r="A419" s="4" t="s">
-        <v>1993</v>
+        <v>1988</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="G419" s="4"/>
       <c r="N419" s="5"/>
     </row>
     <row r="420" spans="1:14">
       <c r="A420" s="4" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="G420" s="4"/>
       <c r="N420" s="5"/>
     </row>
     <row r="421" spans="1:14">
       <c r="A421" s="4" t="s">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="G421" s="4"/>
       <c r="N421" s="5"/>
     </row>
     <row r="422" spans="1:14">
       <c r="A422" s="4" t="s">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="G422" s="4"/>
       <c r="N422" s="5"/>
     </row>
     <row r="423" spans="1:14">
       <c r="A423" s="4" t="s">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="G423" s="4"/>
       <c r="N423" s="5"/>
     </row>
     <row r="424" spans="1:14">
       <c r="A424" s="4" t="s">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="G424" s="4"/>
       <c r="N424" s="5"/>
     </row>
     <row r="425" spans="1:14">
       <c r="A425" s="4" t="s">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="G425" s="4"/>
       <c r="N425" s="5"/>
     </row>
     <row r="426" spans="1:14">
       <c r="A426" s="4" t="s">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="G426" s="4"/>
       <c r="N426" s="5"/>
     </row>
     <row r="427" spans="1:14">
       <c r="A427" s="4" t="s">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="G427" s="4"/>
       <c r="N427" s="5"/>
     </row>
     <row r="428" spans="1:14">
       <c r="A428" s="4" t="s">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="G428" s="4"/>
       <c r="N428" s="5"/>
     </row>
     <row r="429" spans="1:14">
       <c r="A429" s="4" t="s">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="G429" s="4"/>
       <c r="N429" s="5"/>
     </row>
     <row r="430" spans="1:14">
       <c r="A430" s="4" t="s">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="G430" s="4"/>
       <c r="N430" s="5"/>
     </row>
     <row r="431" spans="1:14">
       <c r="A431" s="4" t="s">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="G431" s="4"/>
       <c r="N431" s="5"/>
     </row>
     <row r="432" spans="1:14">
       <c r="A432" s="4" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="G432" s="4"/>
       <c r="N432" s="5"/>
     </row>
     <row r="433" spans="1:14">
       <c r="A433" s="4" t="s">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="G433" s="4"/>
       <c r="N433" s="5"/>
     </row>
     <row r="434" spans="1:14">
       <c r="A434" s="4" t="s">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="G434" s="4"/>
       <c r="N434" s="5"/>
     </row>
     <row r="435" spans="1:14">
       <c r="A435" s="4" t="s">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="G435" s="4"/>
       <c r="N435" s="5"/>
     </row>
     <row r="436" spans="1:14">
       <c r="A436" s="4" t="s">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="G436" s="4"/>
       <c r="N436" s="5"/>
     </row>
     <row r="437" spans="1:14">
       <c r="A437" s="4" t="s">
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="G437" s="4"/>
       <c r="N437" s="5"/>
     </row>
     <row r="438" spans="1:14">
       <c r="A438" s="4" t="s">
-        <v>2031</v>
+        <v>2026</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="G438" s="4"/>
       <c r="N438" s="5"/>
     </row>
     <row r="439" spans="1:14">
       <c r="A439" s="4" t="s">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="G439" s="4"/>
       <c r="N439" s="5"/>
     </row>
     <row r="440" spans="1:14">
       <c r="A440" s="4" t="s">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>2036</v>
+        <v>2031</v>
       </c>
       <c r="G440" s="4"/>
       <c r="N440" s="5"/>
     </row>
     <row r="441" spans="1:14">
       <c r="A441" s="4" t="s">
-        <v>2037</v>
+        <v>2032</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>2038</v>
+        <v>2033</v>
       </c>
       <c r="G441" s="4"/>
       <c r="N441" s="5"/>
     </row>
     <row r="442" spans="1:14">
       <c r="A442" s="4" t="s">
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="G442" s="4"/>
       <c r="N442" s="5"/>
     </row>
     <row r="443" spans="1:14">
       <c r="A443" s="4" t="s">
-        <v>2041</v>
+        <v>2036</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>2042</v>
+        <v>2037</v>
       </c>
       <c r="G443" s="4"/>
       <c r="N443" s="5"/>
     </row>
     <row r="444" spans="1:14">
       <c r="A444" s="4" t="s">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="G444" s="4"/>
       <c r="N444" s="5"/>
     </row>
     <row r="445" spans="1:14">
       <c r="A445" s="4" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="G445" s="4"/>
       <c r="N445" s="5"/>
     </row>
     <row r="446" spans="1:14">
       <c r="A446" s="4" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="G446" s="4"/>
       <c r="N446" s="5"/>
     </row>
     <row r="447" spans="1:14">
       <c r="A447" s="4" t="s">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="G447" s="4"/>
       <c r="N447" s="5"/>
     </row>
     <row r="448" spans="1:14">
       <c r="A448" s="4" t="s">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="G448" s="4"/>
       <c r="N448" s="5"/>
     </row>
     <row r="449" spans="1:14">
       <c r="A449" s="4" t="s">
-        <v>2053</v>
+        <v>2048</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="G449" s="4"/>
       <c r="N449" s="5"/>
     </row>
     <row r="450" spans="1:14">
       <c r="A450" s="4" t="s">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>2056</v>
+        <v>2051</v>
       </c>
       <c r="G450" s="4"/>
       <c r="N450" s="5"/>
     </row>
     <row r="451" spans="1:14">
       <c r="A451" s="4" t="s">
-        <v>2057</v>
+        <v>2052</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="G451" s="4"/>
       <c r="N451" s="5"/>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="4" t="s">
-        <v>2059</v>
+        <v>2054</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="4" t="s">
-        <v>2061</v>
+        <v>2056</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="4" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="4" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="4" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="4" t="s">
-        <v>2065</v>
+        <v>2060</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="4" t="s">
-        <v>2066</v>
+        <v>2061</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="4" t="s">
-        <v>2067</v>
+        <v>2062</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="4" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="4" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="4" t="s">
-        <v>2070</v>
+        <v>2065</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="4" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="4" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="4" t="s">
-        <v>2073</v>
+        <v>2068</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="4" t="s">
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="4" t="s">
-        <v>2075</v>
+        <v>2070</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="4" t="s">
-        <v>2076</v>
+        <v>2071</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="4" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="4" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="4" t="s">
-        <v>2079</v>
+        <v>2074</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="4" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="4" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="4" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="4" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="4" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="4" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="4" t="s">
-        <v>2086</v>
+        <v>2081</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="4" t="s">
-        <v>2087</v>
+        <v>2082</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="4" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="4" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="4" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="8" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="B483" s="9" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="9" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="B484" s="9" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="9" t="s">
-        <v>2096</v>
+        <v>2091</v>
       </c>
       <c r="B485" s="9" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="9" t="s">
-        <v>2098</v>
+        <v>2093</v>
       </c>
       <c r="B486" s="9" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="9" t="s">
-        <v>2100</v>
+        <v>2095</v>
       </c>
       <c r="B487" s="9" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="9" t="s">
-        <v>2102</v>
+        <v>2097</v>
       </c>
       <c r="B488" s="9" t="s">
-        <v>2103</v>
+        <v>2098</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="9" t="s">
-        <v>2104</v>
+        <v>2099</v>
       </c>
       <c r="B489" s="9" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="9" t="s">
-        <v>2106</v>
+        <v>2101</v>
       </c>
       <c r="B490" s="9" t="s">
-        <v>2107</v>
+        <v>2102</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="9" t="s">
-        <v>2108</v>
+        <v>2103</v>
       </c>
       <c r="B491" s="9" t="s">
-        <v>2109</v>
+        <v>2104</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="9" t="s">
-        <v>2110</v>
+        <v>2105</v>
       </c>
       <c r="B492" s="9" t="s">
-        <v>2111</v>
+        <v>2106</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="9" t="s">
-        <v>2112</v>
+        <v>2107</v>
       </c>
       <c r="B493" s="9" t="s">
-        <v>2113</v>
+        <v>2108</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="9" t="s">
-        <v>2114</v>
+        <v>2109</v>
       </c>
       <c r="B494" s="9" t="s">
-        <v>2115</v>
+        <v>2110</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="9" t="s">
-        <v>2116</v>
+        <v>2111</v>
       </c>
       <c r="B495" s="9" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="9" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="B496" s="9" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="9" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="B497" s="9" t="s">
-        <v>2121</v>
+        <v>2116</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="9" t="s">
-        <v>2122</v>
+        <v>2117</v>
       </c>
       <c r="B498" s="9" t="s">
-        <v>2123</v>
+        <v>2118</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="9" t="s">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="B499" s="9" t="s">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="9" t="s">
-        <v>2126</v>
+        <v>2121</v>
       </c>
       <c r="B500" s="9" t="s">
-        <v>2127</v>
+        <v>2122</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="9" t="s">
-        <v>2128</v>
+        <v>2123</v>
       </c>
       <c r="B501" s="9" t="s">
-        <v>2129</v>
+        <v>2124</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="9" t="s">
-        <v>2130</v>
+        <v>2125</v>
       </c>
       <c r="B502" s="9" t="s">
-        <v>2131</v>
+        <v>2126</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="9" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="B503" s="9" t="s">
-        <v>2133</v>
+        <v>2128</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="9" t="s">
-        <v>2134</v>
+        <v>2129</v>
       </c>
       <c r="B504" s="9" t="s">
-        <v>2135</v>
+        <v>2130</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="9" t="s">
-        <v>2136</v>
+        <v>2131</v>
       </c>
       <c r="B505" s="9" t="s">
-        <v>2137</v>
+        <v>2132</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="9" t="s">
-        <v>2138</v>
+        <v>2133</v>
       </c>
       <c r="B506" s="9" t="s">
-        <v>2139</v>
+        <v>2134</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="9" t="s">
-        <v>2140</v>
+        <v>2135</v>
       </c>
       <c r="B507" s="9" t="s">
-        <v>2141</v>
+        <v>2136</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="9" t="s">
-        <v>2142</v>
+        <v>2137</v>
       </c>
       <c r="B508" s="9" t="s">
-        <v>2143</v>
+        <v>2138</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="9" t="s">
-        <v>2144</v>
+        <v>2139</v>
       </c>
       <c r="B509" s="9" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="9" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
       <c r="B510" s="9" t="s">
-        <v>2147</v>
+        <v>2142</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="9" t="s">
-        <v>2148</v>
+        <v>2143</v>
       </c>
       <c r="B511" s="9" t="s">
-        <v>2149</v>
+        <v>2144</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="9" t="s">
-        <v>2150</v>
+        <v>2145</v>
       </c>
       <c r="B512" s="9" t="s">
-        <v>2151</v>
+        <v>2146</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="9" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="B513" s="9" t="s">
-        <v>2153</v>
+        <v>2148</v>
       </c>
       <c r="C513" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="9" t="s">
-        <v>2154</v>
+        <v>2149</v>
       </c>
       <c r="B514" s="9" t="s">
-        <v>2155</v>
+        <v>2150</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="9" t="s">
-        <v>2156</v>
+        <v>2151</v>
       </c>
       <c r="B515" s="9" t="s">
-        <v>2157</v>
+        <v>2152</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="9" t="s">
-        <v>2158</v>
+        <v>2153</v>
       </c>
       <c r="B516" s="9" t="s">
-        <v>2159</v>
+        <v>2154</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="9" t="s">
-        <v>2160</v>
+        <v>2155</v>
       </c>
       <c r="B517" s="9" t="s">
-        <v>2161</v>
+        <v>2156</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="9" t="s">
-        <v>2162</v>
+        <v>2157</v>
       </c>
       <c r="B518" s="9" t="s">
-        <v>2163</v>
+        <v>2158</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="9" t="s">
-        <v>2164</v>
+        <v>2159</v>
       </c>
       <c r="B519" s="9" t="s">
-        <v>2165</v>
+        <v>2160</v>
       </c>
       <c r="C519" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="9" t="s">
-        <v>2166</v>
+        <v>2161</v>
       </c>
       <c r="B520" s="9" t="s">
-        <v>2167</v>
+        <v>2162</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="9" t="s">
-        <v>2168</v>
+        <v>2163</v>
       </c>
       <c r="B521" s="9" t="s">
-        <v>2169</v>
+        <v>2164</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="9" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="B522" s="9" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" s="9" t="s">
-        <v>2172</v>
+        <v>2167</v>
       </c>
       <c r="B523" s="9" t="s">
-        <v>2173</v>
+        <v>2168</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="9" t="s">
-        <v>2174</v>
+        <v>2169</v>
       </c>
       <c r="B524" s="9" t="s">
-        <v>2175</v>
+        <v>2170</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="9" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="B525" s="9" t="s">
-        <v>2177</v>
+        <v>2172</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="9" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="B526" s="9" t="s">
-        <v>2179</v>
+        <v>2174</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="9" t="s">
-        <v>2180</v>
+        <v>2175</v>
       </c>
       <c r="B527" s="9" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" s="9" t="s">
-        <v>2182</v>
+        <v>2177</v>
       </c>
       <c r="B528" s="9" t="s">
-        <v>2183</v>
+        <v>2178</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529" s="9" t="s">
-        <v>2184</v>
+        <v>2179</v>
       </c>
       <c r="B529" s="9" t="s">
-        <v>2185</v>
+        <v>2180</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="9" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
       <c r="B530" s="9" t="s">
-        <v>2187</v>
+        <v>2182</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="9" t="s">
-        <v>2188</v>
+        <v>2183</v>
       </c>
       <c r="B531" s="9" t="s">
-        <v>2189</v>
+        <v>2184</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="9" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
       <c r="B532" s="9" t="s">
-        <v>2191</v>
+        <v>2186</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="9" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
       <c r="B533" s="9" t="s">
-        <v>2193</v>
+        <v>2188</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" s="9" t="s">
-        <v>2194</v>
+        <v>2189</v>
       </c>
       <c r="B534" s="9" t="s">
-        <v>2195</v>
+        <v>2190</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" s="9" t="s">
-        <v>2196</v>
+        <v>2191</v>
       </c>
       <c r="B535" s="9" t="s">
-        <v>2197</v>
+        <v>2192</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536" s="9" t="s">
-        <v>2198</v>
+        <v>2193</v>
       </c>
       <c r="B536" s="9" t="s">
-        <v>2199</v>
+        <v>2194</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537" s="9" t="s">
-        <v>2200</v>
+        <v>2195</v>
       </c>
       <c r="B537" s="9" t="s">
-        <v>2201</v>
+        <v>2196</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" s="9" t="s">
-        <v>2202</v>
+        <v>2197</v>
       </c>
       <c r="B538" s="9" t="s">
-        <v>2203</v>
+        <v>2198</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539" s="9" t="s">
-        <v>2204</v>
+        <v>2199</v>
       </c>
       <c r="B539" s="9" t="s">
-        <v>2205</v>
+        <v>2200</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540" s="9" t="s">
-        <v>2206</v>
+        <v>2201</v>
       </c>
       <c r="B540" s="9" t="s">
-        <v>2207</v>
+        <v>2202</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541" s="9" t="s">
-        <v>2208</v>
+        <v>2203</v>
       </c>
       <c r="B541" s="9" t="s">
-        <v>2209</v>
+        <v>2204</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542" s="9" t="s">
-        <v>2210</v>
+        <v>2205</v>
       </c>
       <c r="B542" s="9" t="s">
-        <v>2211</v>
+        <v>2206</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543" s="9" t="s">
-        <v>2212</v>
+        <v>2207</v>
       </c>
       <c r="B543" s="9" t="s">
-        <v>2213</v>
+        <v>2208</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544" s="9" t="s">
-        <v>2214</v>
+        <v>2209</v>
       </c>
       <c r="B544" s="9" t="s">
-        <v>2215</v>
+        <v>2210</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="545" spans="1:3">
       <c r="A545" s="9" t="s">
-        <v>2216</v>
+        <v>2211</v>
       </c>
       <c r="B545" s="9" t="s">
-        <v>2217</v>
+        <v>2212</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="546" spans="1:3">
       <c r="A546" s="9" t="s">
-        <v>2218</v>
+        <v>2213</v>
       </c>
       <c r="B546" s="9" t="s">
-        <v>2219</v>
+        <v>2214</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="547" spans="1:3">
       <c r="A547" s="9" t="s">
-        <v>2220</v>
+        <v>2215</v>
       </c>
       <c r="B547" s="9" t="s">
-        <v>2221</v>
+        <v>2216</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="548" spans="1:3">
       <c r="A548" s="9" t="s">
-        <v>2222</v>
+        <v>2217</v>
       </c>
       <c r="B548" s="9" t="s">
-        <v>2223</v>
+        <v>2218</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="549" spans="1:3">
       <c r="A549" s="9" t="s">
-        <v>2224</v>
+        <v>2219</v>
       </c>
       <c r="B549" s="9" t="s">
-        <v>2225</v>
+        <v>2220</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="550" spans="1:3">
       <c r="A550" s="9" t="s">
-        <v>2226</v>
+        <v>2221</v>
       </c>
       <c r="B550" s="9" t="s">
-        <v>2227</v>
+        <v>2222</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="551" spans="1:3">
       <c r="A551" s="9" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
       <c r="B551" s="9" t="s">
-        <v>2229</v>
+        <v>2224</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="552" spans="1:3">
       <c r="A552" s="9" t="s">
-        <v>2230</v>
+        <v>2225</v>
       </c>
       <c r="B552" s="9" t="s">
-        <v>2231</v>
+        <v>2226</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="553" spans="1:3">
       <c r="A553" s="9" t="s">
-        <v>2232</v>
+        <v>2227</v>
       </c>
       <c r="B553" s="9" t="s">
-        <v>2233</v>
+        <v>2228</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="554" spans="1:3">
       <c r="A554" s="9" t="s">
-        <v>2234</v>
+        <v>2229</v>
       </c>
       <c r="B554" s="9" t="s">
-        <v>2235</v>
+        <v>2230</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="555" spans="1:3">
       <c r="A555" s="9" t="s">
-        <v>2236</v>
+        <v>2231</v>
       </c>
       <c r="B555" s="9" t="s">
-        <v>2237</v>
+        <v>2232</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="556" spans="1:3">
       <c r="A556" s="9" t="s">
-        <v>2238</v>
+        <v>2233</v>
       </c>
       <c r="B556" s="9" t="s">
-        <v>2239</v>
+        <v>2234</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="557" spans="1:3">
       <c r="A557" s="9" t="s">
-        <v>2240</v>
+        <v>2235</v>
       </c>
       <c r="B557" s="9" t="s">
-        <v>2241</v>
+        <v>2236</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="558" spans="1:3">
       <c r="A558" s="9" t="s">
-        <v>2242</v>
+        <v>2237</v>
       </c>
       <c r="B558" s="9" t="s">
-        <v>2243</v>
+        <v>2238</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="559" spans="1:3">
       <c r="A559" s="9" t="s">
-        <v>2244</v>
+        <v>2239</v>
       </c>
       <c r="B559" s="9" t="s">
-        <v>2245</v>
+        <v>2240</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="560" spans="1:3">
       <c r="A560" s="9" t="s">
-        <v>2246</v>
+        <v>2241</v>
       </c>
       <c r="B560" s="9" t="s">
-        <v>2247</v>
+        <v>2242</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="561" spans="1:3">
       <c r="A561" s="9" t="s">
-        <v>2248</v>
+        <v>2243</v>
       </c>
       <c r="B561" s="9" t="s">
-        <v>2249</v>
+        <v>2244</v>
       </c>
       <c r="C561" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="562" spans="1:3">
       <c r="A562" s="9" t="s">
-        <v>2250</v>
+        <v>2245</v>
       </c>
       <c r="B562" s="9" t="s">
-        <v>2251</v>
+        <v>2246</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="563" spans="1:3">
       <c r="A563" s="9" t="s">
-        <v>2252</v>
+        <v>2247</v>
       </c>
       <c r="B563" s="9" t="s">
-        <v>2253</v>
+        <v>2248</v>
       </c>
       <c r="C563" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="564" spans="1:3">
       <c r="A564" s="9" t="s">
-        <v>2254</v>
+        <v>2249</v>
       </c>
       <c r="B564" s="9" t="s">
-        <v>2255</v>
+        <v>2250</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="565" spans="1:3">
       <c r="A565" s="9" t="s">
-        <v>2256</v>
+        <v>2251</v>
       </c>
       <c r="B565" s="9" t="s">
-        <v>2257</v>
+        <v>2252</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="566" spans="1:3">
       <c r="A566" s="9" t="s">
-        <v>2258</v>
+        <v>2253</v>
       </c>
       <c r="B566" s="9" t="s">
-        <v>2259</v>
+        <v>2254</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="567" spans="1:3">
       <c r="A567" s="9" t="s">
-        <v>2260</v>
+        <v>2255</v>
       </c>
       <c r="B567" s="9" t="s">
-        <v>2261</v>
+        <v>2256</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="568" spans="1:3">
       <c r="A568" s="9" t="s">
-        <v>2262</v>
+        <v>2257</v>
       </c>
       <c r="B568" s="9" t="s">
-        <v>2263</v>
+        <v>2258</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="569" spans="1:3">
       <c r="A569" s="9" t="s">
-        <v>2264</v>
+        <v>2259</v>
       </c>
       <c r="B569" s="9" t="s">
-        <v>2265</v>
+        <v>2260</v>
       </c>
       <c r="C569" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="570" spans="1:3">
       <c r="A570" s="9" t="s">
-        <v>2266</v>
+        <v>2261</v>
       </c>
       <c r="B570" s="9" t="s">
-        <v>2267</v>
+        <v>2262</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="571" spans="1:3">
       <c r="A571" s="9" t="s">
-        <v>2268</v>
+        <v>2263</v>
       </c>
       <c r="B571" s="9" t="s">
-        <v>2269</v>
+        <v>2264</v>
       </c>
       <c r="C571" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="572" spans="1:3">
       <c r="A572" s="9" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="B572" s="9" t="s">
-        <v>2271</v>
+        <v>2266</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="573" spans="1:3">
       <c r="A573" s="9" t="s">
-        <v>2272</v>
+        <v>2267</v>
       </c>
       <c r="B573" s="9" t="s">
-        <v>2273</v>
+        <v>2268</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="574" spans="1:3">
       <c r="A574" s="9" t="s">
-        <v>2274</v>
+        <v>2269</v>
       </c>
       <c r="B574" s="9" t="s">
-        <v>2275</v>
+        <v>2270</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="575" spans="1:3">
       <c r="A575" s="9" t="s">
-        <v>2276</v>
+        <v>2271</v>
       </c>
       <c r="B575" s="9" t="s">
-        <v>2277</v>
+        <v>2272</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="576" spans="1:3">
       <c r="A576" s="10" t="s">
-        <v>2278</v>
+        <v>2273</v>
       </c>
       <c r="B576" s="10" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="577" spans="1:3">
       <c r="A577" s="9" t="s">
-        <v>2280</v>
+        <v>2275</v>
       </c>
       <c r="B577" s="9" t="s">
-        <v>2281</v>
+        <v>2276</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="578" spans="1:3">
       <c r="A578" s="9" t="s">
-        <v>2282</v>
+        <v>2277</v>
       </c>
       <c r="B578" s="9" t="s">
-        <v>2283</v>
+        <v>2278</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="579" spans="1:3">
       <c r="A579" s="9" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
       <c r="B579" s="9" t="s">
-        <v>2285</v>
+        <v>2280</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="580" spans="1:3">
       <c r="A580" s="9" t="s">
-        <v>2286</v>
+        <v>2281</v>
       </c>
       <c r="B580" s="9" t="s">
-        <v>2287</v>
+        <v>2282</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="581" spans="1:3">
       <c r="A581" s="9" t="s">
-        <v>2288</v>
+        <v>2283</v>
       </c>
       <c r="B581" s="9" t="s">
-        <v>2289</v>
+        <v>2284</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="582" spans="1:3">
       <c r="A582" s="9" t="s">
-        <v>2290</v>
+        <v>2285</v>
       </c>
       <c r="B582" s="9" t="s">
-        <v>2291</v>
+        <v>2286</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="583" spans="1:3">
       <c r="A583" s="9" t="s">
-        <v>2292</v>
+        <v>2287</v>
       </c>
       <c r="B583" s="9" t="s">
-        <v>2293</v>
+        <v>2288</v>
       </c>
       <c r="C583" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="584" spans="1:3">
       <c r="A584" s="9" t="s">
-        <v>2294</v>
+        <v>2289</v>
       </c>
       <c r="B584" s="9" t="s">
-        <v>2295</v>
+        <v>2290</v>
       </c>
       <c r="C584" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="585" spans="1:3">
       <c r="A585" s="9" t="s">
-        <v>2296</v>
+        <v>2291</v>
       </c>
       <c r="B585" s="9" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="C585" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="586" spans="1:3">
       <c r="A586" s="9" t="s">
-        <v>2298</v>
+        <v>2293</v>
       </c>
       <c r="B586" s="9" t="s">
-        <v>2299</v>
+        <v>2294</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="587" spans="1:3">
       <c r="A587" s="9" t="s">
-        <v>2300</v>
+        <v>2295</v>
       </c>
       <c r="B587" s="9" t="s">
-        <v>2301</v>
+        <v>2296</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="588" spans="1:3">
       <c r="A588" s="9" t="s">
-        <v>2302</v>
+        <v>2297</v>
       </c>
       <c r="B588" s="9" t="s">
-        <v>2303</v>
+        <v>2298</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="589" spans="1:3">
       <c r="A589" s="9" t="s">
-        <v>2304</v>
+        <v>2299</v>
       </c>
       <c r="B589" s="9" t="s">
-        <v>2305</v>
+        <v>2300</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="590" spans="1:3">
       <c r="A590" s="9" t="s">
-        <v>2306</v>
+        <v>2301</v>
       </c>
       <c r="B590" s="9" t="s">
-        <v>2307</v>
+        <v>2302</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="591" spans="1:3">
       <c r="A591" s="9" t="s">
-        <v>2308</v>
+        <v>2303</v>
       </c>
       <c r="B591" s="9" t="s">
-        <v>2309</v>
+        <v>2304</v>
       </c>
       <c r="C591" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="592" spans="1:3">
       <c r="A592" s="9" t="s">
-        <v>2310</v>
+        <v>2305</v>
       </c>
       <c r="B592" s="9" t="s">
-        <v>2311</v>
+        <v>2306</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="593" spans="1:3">
       <c r="A593" s="9" t="s">
-        <v>2312</v>
+        <v>2307</v>
       </c>
       <c r="B593" s="9" t="s">
-        <v>2313</v>
+        <v>2308</v>
       </c>
       <c r="C593" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="594" spans="1:3">
       <c r="A594" s="9" t="s">
-        <v>2314</v>
+        <v>2309</v>
       </c>
       <c r="B594" s="9" t="s">
-        <v>2315</v>
+        <v>2310</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="595" spans="1:3">
       <c r="A595" s="9" t="s">
-        <v>2316</v>
+        <v>2311</v>
       </c>
       <c r="B595" s="9" t="s">
-        <v>2317</v>
+        <v>2312</v>
       </c>
       <c r="C595" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="596" spans="1:3">
       <c r="A596" s="9" t="s">
-        <v>2318</v>
+        <v>2313</v>
       </c>
       <c r="B596" s="9" t="s">
-        <v>2319</v>
+        <v>2314</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="597" spans="1:3">
       <c r="A597" s="9" t="s">
-        <v>2320</v>
+        <v>2315</v>
       </c>
       <c r="B597" s="9" t="s">
-        <v>2321</v>
+        <v>2316</v>
       </c>
       <c r="C597" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="598" spans="1:3">
       <c r="A598" s="9" t="s">
-        <v>2322</v>
+        <v>2317</v>
       </c>
       <c r="B598" s="9" t="s">
-        <v>2323</v>
+        <v>2318</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="599" spans="1:3">
       <c r="A599" s="9" t="s">
-        <v>2324</v>
+        <v>2319</v>
       </c>
       <c r="B599" s="9" t="s">
-        <v>2325</v>
+        <v>2320</v>
       </c>
       <c r="C599" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="600" spans="1:3">
       <c r="A600" s="9" t="s">
-        <v>2326</v>
+        <v>2321</v>
       </c>
       <c r="B600" s="9" t="s">
-        <v>2327</v>
+        <v>2322</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="601" spans="1:3">
       <c r="A601" s="9" t="s">
-        <v>2328</v>
+        <v>2323</v>
       </c>
       <c r="B601" s="9" t="s">
-        <v>2329</v>
+        <v>2324</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="602" spans="1:3">
       <c r="A602" s="9" t="s">
-        <v>2330</v>
+        <v>2325</v>
       </c>
       <c r="B602" s="9" t="s">
-        <v>2331</v>
+        <v>2326</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="603" spans="1:3">
       <c r="A603" s="9" t="s">
-        <v>2332</v>
+        <v>2327</v>
       </c>
       <c r="B603" s="9" t="s">
-        <v>2333</v>
+        <v>2328</v>
       </c>
       <c r="C603" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="604" spans="1:3">
       <c r="A604" s="9" t="s">
-        <v>2334</v>
+        <v>2329</v>
       </c>
       <c r="B604" s="9" t="s">
-        <v>2335</v>
+        <v>2330</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="605" spans="1:3">
       <c r="A605" s="9" t="s">
-        <v>2336</v>
+        <v>2331</v>
       </c>
       <c r="B605" s="9" t="s">
-        <v>2337</v>
+        <v>2332</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="606" spans="1:14">
       <c r="A606" s="9" t="s">
-        <v>2338</v>
+        <v>2333</v>
       </c>
       <c r="B606" s="11" t="s">
-        <v>2339</v>
+        <v>2334</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>2340</v>
+        <v>2335</v>
       </c>
       <c r="N606" s="5"/>
     </row>
     <row r="607" spans="1:3">
       <c r="A607" s="9" t="s">
-        <v>2341</v>
+        <v>2336</v>
       </c>
       <c r="B607" s="11" t="s">
-        <v>2342</v>
+        <v>2337</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>2343</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="608" spans="1:3">
       <c r="A608" s="9" t="s">
-        <v>2344</v>
+        <v>2339</v>
       </c>
       <c r="B608" s="11" t="s">
-        <v>2345</v>
+        <v>2340</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>2346</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="609" spans="1:19">
       <c r="A609" s="9" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B609" s="11" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C609" s="4" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D609" s="4" t="s">
+        <v>2345</v>
+      </c>
+      <c r="N609" s="6" t="s">
+        <v>2346</v>
+      </c>
+      <c r="O609" s="4" t="s">
         <v>2347</v>
       </c>
-      <c r="B609" s="11" t="s">
+      <c r="P609" s="6" t="s">
         <v>2348</v>
       </c>
-      <c r="C609" s="4" t="s">
+      <c r="Q609" s="4" t="s">
         <v>2349</v>
       </c>
-      <c r="D609" s="4" t="s">
+      <c r="R609" s="6" t="s">
         <v>2350</v>
       </c>
-      <c r="N609" s="6" t="s">
+      <c r="S609" s="4" t="s">
         <v>2351</v>
-      </c>
-      <c r="O609" s="4" t="s">
-        <v>2352</v>
-      </c>
-      <c r="P609" s="6" t="s">
-        <v>2353</v>
-      </c>
-      <c r="Q609" s="4" t="s">
-        <v>2354</v>
-      </c>
-      <c r="R609" s="6" t="s">
-        <v>2355</v>
-      </c>
-      <c r="S609" s="4" t="s">
-        <v>2356</v>
       </c>
     </row>
     <row r="610" spans="1:3">
       <c r="A610" s="9" t="s">
-        <v>2357</v>
+        <v>2352</v>
       </c>
       <c r="B610" s="11" t="s">
-        <v>2358</v>
+        <v>2353</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>2359</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="611" spans="1:3">
       <c r="A611" s="9" t="s">
-        <v>2360</v>
+        <v>2355</v>
       </c>
       <c r="B611" s="11" t="s">
-        <v>2361</v>
+        <v>2356</v>
       </c>
       <c r="C611" s="4" t="s">
-        <v>2362</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="612" spans="1:3">
       <c r="A612" s="9" t="s">
-        <v>2363</v>
+        <v>2358</v>
       </c>
       <c r="B612" s="11" t="s">
-        <v>2364</v>
+        <v>2359</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>2365</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="613" spans="1:3">
       <c r="A613" s="9" t="s">
-        <v>2366</v>
+        <v>2361</v>
       </c>
       <c r="B613" s="11" t="s">
-        <v>2367</v>
+        <v>2362</v>
       </c>
       <c r="C613" s="4" t="s">
-        <v>2368</v>
+        <v>2363</v>
       </c>
     </row>
   </sheetData>
@@ -21822,7 +21789,7 @@
   <sheetData>
     <row r="2" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>2059</v>
+        <v>2054</v>
       </c>
       <c r="B2" s="1" t="e">
         <v>#N/A</v>
@@ -21832,7 +21799,7 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>2061</v>
+        <v>2056</v>
       </c>
       <c r="B3" s="1" t="e">
         <v>#N/A</v>
@@ -21842,7 +21809,7 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>2369</v>
+        <v>2364</v>
       </c>
       <c r="B4" s="1" t="e">
         <v>#N/A</v>
@@ -21852,7 +21819,7 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>2370</v>
+        <v>2365</v>
       </c>
       <c r="B5" s="1" t="e">
         <v>#N/A</v>
@@ -21862,7 +21829,7 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="B6" s="1" t="e">
         <v>#N/A</v>
@@ -21872,7 +21839,7 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="B7" s="1" t="e">
         <v>#N/A</v>
@@ -21882,7 +21849,7 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="B8" s="1" t="e">
         <v>#N/A</v>
@@ -21892,7 +21859,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>2065</v>
+        <v>2060</v>
       </c>
       <c r="B9" s="1" t="e">
         <v>#N/A</v>
@@ -21902,7 +21869,7 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>2066</v>
+        <v>2061</v>
       </c>
       <c r="B10" s="1" t="e">
         <v>#N/A</v>
@@ -21912,7 +21879,7 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>2371</v>
+        <v>2366</v>
       </c>
       <c r="B11" s="1" t="e">
         <v>#N/A</v>
@@ -21922,7 +21889,7 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>2067</v>
+        <v>2062</v>
       </c>
       <c r="B12" s="1" t="e">
         <v>#N/A</v>
@@ -21932,7 +21899,7 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="B13" s="1" t="e">
         <v>#N/A</v>
@@ -21942,7 +21909,7 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="B14" s="1" t="e">
         <v>#N/A</v>
@@ -21952,7 +21919,7 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>2070</v>
+        <v>2065</v>
       </c>
       <c r="B15" s="1" t="e">
         <v>#N/A</v>
@@ -21962,7 +21929,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="B16" s="1" t="e">
         <v>#N/A</v>
@@ -21972,7 +21939,7 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="B17" s="1" t="e">
         <v>#N/A</v>
@@ -21982,7 +21949,7 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>2073</v>
+        <v>2068</v>
       </c>
       <c r="B18" s="1" t="e">
         <v>#N/A</v>
@@ -22002,7 +21969,7 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="B20" s="1" t="e">
         <v>#N/A</v>
@@ -22012,7 +21979,7 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>2075</v>
+        <v>2070</v>
       </c>
       <c r="B21" s="1" t="e">
         <v>#N/A</v>
@@ -22022,7 +21989,7 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>2076</v>
+        <v>2071</v>
       </c>
       <c r="B22" s="1" t="e">
         <v>#N/A</v>
@@ -22032,7 +21999,7 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>2372</v>
+        <v>2367</v>
       </c>
       <c r="B23" s="1" t="e">
         <v>#N/A</v>
@@ -22042,7 +22009,7 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A24" s="1" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
       <c r="B24" s="1" t="e">
         <v>#N/A</v>
@@ -22052,7 +22019,7 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="B25" s="1" t="e">
         <v>#N/A</v>
@@ -22072,7 +22039,7 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>2079</v>
+        <v>2074</v>
       </c>
       <c r="B27" s="1" t="e">
         <v>#N/A</v>
@@ -22082,7 +22049,7 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="B28" s="1" t="e">
         <v>#N/A</v>
@@ -22092,7 +22059,7 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="B29" s="1" t="e">
         <v>#N/A</v>
@@ -22102,7 +22069,7 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>2373</v>
+        <v>2368</v>
       </c>
       <c r="B30" s="1" t="e">
         <v>#N/A</v>
@@ -22112,7 +22079,7 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="B31" s="1" t="e">
         <v>#N/A</v>
@@ -22122,7 +22089,7 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="B32" s="1" t="e">
         <v>#N/A</v>
@@ -22132,7 +22099,7 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A33" s="1" t="s">
-        <v>2374</v>
+        <v>2369</v>
       </c>
       <c r="B33" s="1" t="e">
         <v>#N/A</v>
@@ -22142,7 +22109,7 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A34" s="1" t="s">
-        <v>2375</v>
+        <v>2370</v>
       </c>
       <c r="B34" s="1" t="e">
         <v>#N/A</v>
@@ -22152,7 +22119,7 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A35" s="1" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="B35" s="1" t="e">
         <v>#N/A</v>
@@ -22162,7 +22129,7 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A36" s="1" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="B36" s="1" t="e">
         <v>#N/A</v>
@@ -22172,7 +22139,7 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A37" s="1" t="s">
-        <v>2376</v>
+        <v>2371</v>
       </c>
       <c r="B37" s="1" t="e">
         <v>#N/A</v>
@@ -22192,7 +22159,7 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A39" s="1" t="s">
-        <v>2086</v>
+        <v>2081</v>
       </c>
       <c r="B39" s="1" t="e">
         <v>#N/A</v>
@@ -22202,7 +22169,7 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A40" s="1" t="s">
-        <v>2087</v>
+        <v>2082</v>
       </c>
       <c r="B40" s="1" t="e">
         <v>#N/A</v>
@@ -22212,7 +22179,7 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A41" s="1" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="B41" s="1" t="e">
         <v>#N/A</v>
@@ -22222,7 +22189,7 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A42" s="1" t="s">
-        <v>2378</v>
+        <v>2373</v>
       </c>
       <c r="B42" s="1" t="e">
         <v>#N/A</v>
@@ -22232,7 +22199,7 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A43" s="1" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="B43" s="1" t="e">
         <v>#N/A</v>
@@ -22242,7 +22209,7 @@
     </row>
     <row r="44" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A44" s="1" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="B44" s="1" t="e">
         <v>#N/A</v>
@@ -22252,7 +22219,7 @@
     </row>
     <row r="45" ht="15" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/items/imba_items_lang.xlsx
+++ b/code/excels/items/imba_items_lang.xlsx
@@ -7026,7 +7026,7 @@
     <t>金币福袋</t>
   </si>
   <si>
-    <t>&lt;h1&gt;被动：存储&lt;/h1&gt;参与战斗的携带者，如果本轮战斗胜利且携带者存活，会吸纳%gold_get%金币进入袋子中。装满袋子后，自动使用获取袋中所有金币。&lt;br&gt;&lt;br&gt;进度：%cur_get%/%need_max%</t>
+    <t>&lt;h1&gt;被动：存储&lt;/h1&gt;参与战斗的携带者，如果本轮战斗胜利且携带者存活，会吸纳%gold_get%金币进入袋子中。装满袋子后，自动使用获取袋中所有金币。</t>
   </si>
   <si>
     <t>item_shop_wood_bag</t>
@@ -7035,7 +7035,7 @@
     <t>木材福袋</t>
   </si>
   <si>
-    <t>&lt;h1&gt;被动：存储&lt;/h1&gt;参与战斗的携带者，如果本轮战斗胜利且携带者存活，会吸纳%gold_get%木材进入袋子中。装满袋子后，自动使用获取袋中所有木材。&lt;br&gt;&lt;br&gt;进度：%cur_get%/%need_max%</t>
+    <t>&lt;h1&gt;被动：存储&lt;/h1&gt;参与战斗的携带者，如果本轮战斗胜利且携带者存活，会吸纳%gold_get%木材进入袋子中。装满袋子后，自动使用获取袋中所有木材。</t>
   </si>
   <si>
     <t>item_shop_soulcrystal_bag</t>
@@ -7044,7 +7044,7 @@
     <t>魂晶福袋</t>
   </si>
   <si>
-    <t>&lt;h1&gt;被动：存储&lt;/h1&gt;参与战斗的携带者，如果本轮战斗胜利且携带者存活，会吸纳%gold_get%魂晶进入袋子中。装满袋子后，自动使用获取袋中所有魂晶。&lt;br&gt;&lt;br&gt;进度：%cur_get%/%need_max%</t>
+    <t>&lt;h1&gt;被动：存储&lt;/h1&gt;参与战斗的携带者，如果本轮战斗胜利且携带者存活，会吸纳%gold_get%魂晶进入袋子中。装满袋子后，自动使用获取袋中所有魂晶。</t>
   </si>
   <si>
     <t>item_shop_lottery_ticket</t>
@@ -8177,8 +8177,8 @@
   <sheetPr/>
   <dimension ref="A1:AO613"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A570" workbookViewId="0">
+      <selection activeCell="C611" sqref="C611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="15"/>

--- a/code/excels/items/imba_items_lang.xlsx
+++ b/code/excels/items/imba_items_lang.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="2374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4220" uniqueCount="2527">
   <si>
     <t>主键</t>
   </si>
@@ -7111,6 +7111,465 @@
   </si>
   <si>
     <t>&lt;h1&gt;购买后自动使用：抽取装备&lt;/h1&gt;使用后，随机抽取一件橙色[S]装备。</t>
+  </si>
+  <si>
+    <t>item_artifact_microcosm</t>
+  </si>
+  <si>
+    <t>微观宇宙</t>
+  </si>
+  <si>
+    <t>获得%population_max%额外人口，但是所有英雄塔造成的伤害-%damage_out_reduce%%%，冷却时间增加%cd_increase_percent%%%。</t>
+  </si>
+  <si>
+    <t>item_artifact_ironwood_tree</t>
+  </si>
+  <si>
+    <t>世界之树的嫩枝</t>
+  </si>
+  <si>
+    <t>抽卡消耗的矿金-%wood_cost_reduce%%%。</t>
+  </si>
+  <si>
+    <t>item_artifact_death_note</t>
+  </si>
+  <si>
+    <t>死亡笔记</t>
+  </si>
+  <si>
+    <t>你的防御塔造成伤害时会直接击杀生命值低于%kill_hp_percent%%%的敌方单位。</t>
+  </si>
+  <si>
+    <t>item_artifact_plunder_stone</t>
+  </si>
+  <si>
+    <t>掠灵宝石</t>
+  </si>
+  <si>
+    <t>击杀单位时有%chance%%%概率额外掉落宝箱或钥匙。</t>
+  </si>
+  <si>
+    <t>item_artifact_tome_of_knowledge</t>
+  </si>
+  <si>
+    <t>学识之书</t>
+  </si>
+  <si>
+    <t>击杀单位时有%chance%%%概率额外掉落随机等级的极限宝典。</t>
+  </si>
+  <si>
+    <t>item_artifact_psychic_headband</t>
+  </si>
+  <si>
+    <t>专属装备的专属效果无需对应英雄即可激活。&lt;br&gt;已佩戴的物品需要卸下后重新佩戴才可激活效果。</t>
+  </si>
+  <si>
+    <t>item_artifact_pure_poison</t>
+  </si>
+  <si>
+    <t>精粹毒液</t>
+  </si>
+  <si>
+    <t>中毒伤害变为纯粹伤害</t>
+  </si>
+  <si>
+    <t>item_artifact_lunpan</t>
+  </si>
+  <si>
+    <t>命运撰写笔</t>
+  </si>
+  <si>
+    <t>英雄冷却缩减%pct%%%</t>
+  </si>
+  <si>
+    <t>item_artifact_reincarnation_lamp</t>
+  </si>
+  <si>
+    <t>七星灯</t>
+  </si>
+  <si>
+    <t>每%round%回合为场上一个未满星的随机防御塔提升%add_star%星级，无尽回合时无效。</t>
+  </si>
+  <si>
+    <t>item_artifact_demagicking_maul</t>
+  </si>
+  <si>
+    <t>巧匠之锤</t>
+  </si>
+  <si>
+    <t>可以将4星装备放入合成栏合成，但合成需要消耗%wood_cost%矿金。合成无法超过物品的最大星级，也就是一些最大星级为4星的装备依旧无法放入合成栏合成（图鉴显示的物品星级就是物品的最大星级）。</t>
+  </si>
+  <si>
+    <t>item_artifact_bottle_water</t>
+  </si>
+  <si>
+    <t>许愿池水</t>
+  </si>
+  <si>
+    <t>获得时为场上所有防御塔增加一个专属装备，若防御塔为6星，则给予的专属装备将附带额外随机词条</t>
+  </si>
+  <si>
+    <t>item_artifact_demon_potion</t>
+  </si>
+  <si>
+    <t>恶魔药剂</t>
+  </si>
+  <si>
+    <t>获得时有%chance%%%概率为场上所有防御塔增加2星，否则降低2星</t>
+  </si>
+  <si>
+    <t>item_artifact_pocket_roshan</t>
+  </si>
+  <si>
+    <t>惊喜礼物</t>
+  </si>
+  <si>
+    <t>随机获得%min%到%max%个幻界魔方。</t>
+  </si>
+  <si>
+    <t>item_artifact_ancient_janggo</t>
+  </si>
+  <si>
+    <t>猛战之鼓</t>
+  </si>
+  <si>
+    <t>挑战怪的冷却时间减少%pct%%%</t>
+  </si>
+  <si>
+    <t>item_artifact_trading_license</t>
+  </si>
+  <si>
+    <t>交易许可证</t>
+  </si>
+  <si>
+    <t>随机商店的刷新时间减少%reduce%秒。</t>
+  </si>
+  <si>
+    <t>item_artifact_philosophers_stone</t>
+  </si>
+  <si>
+    <t>贤者之石</t>
+  </si>
+  <si>
+    <t>获得%population_max%额外人口。</t>
+  </si>
+  <si>
+    <t>item_artifact_courier</t>
+  </si>
+  <si>
+    <t>负重之道</t>
+  </si>
+  <si>
+    <t>为所有防御塔解锁%extra_inventory%个额外物品格。</t>
+  </si>
+  <si>
+    <t>item_artifact_vambrace_str</t>
+  </si>
+  <si>
+    <t>力之臂甲</t>
+  </si>
+  <si>
+    <t>力量主属性的单位获得：降低%crit_debuff%%%物理暴击概率，每点力量提升%pct%%%物理暴击伤害</t>
+  </si>
+  <si>
+    <t>item_artifact_vambrace_agi</t>
+  </si>
+  <si>
+    <t>敏之臂甲</t>
+  </si>
+  <si>
+    <t>敏捷主属性的的单位获得：降低%attack_speed_debuff%攻速，每点敏捷提升%pct%%%的基础攻击力</t>
+  </si>
+  <si>
+    <t>item_artifact_vambrace_int</t>
+  </si>
+  <si>
+    <t>智之臂甲</t>
+  </si>
+  <si>
+    <t>智力主属性的单位获得：降低%crit_debuff%%%技能暴击概率，每点智力提升%pct%%%技能暴击伤害</t>
+  </si>
+  <si>
+    <t>item_artifact_aeon_disk</t>
+  </si>
+  <si>
+    <t>根据玩家数量，额外增加%extra_1%/%extra_2%/%extra_3%/%extra_4%个漏怪上限。</t>
+  </si>
+  <si>
+    <t>item_artifact_grandmasters_glaive</t>
+  </si>
+  <si>
+    <t>独奏长笛</t>
+  </si>
+  <si>
+    <t>每个未使用的人口数，都会使场上单位额外造成%total_damage%%%全伤害。</t>
+  </si>
+  <si>
+    <t>item_artifact_trusty_shovel</t>
+  </si>
+  <si>
+    <t>挖矿铲</t>
+  </si>
+  <si>
+    <t>每%time%秒获得%bonus%矿金。</t>
+  </si>
+  <si>
+    <t>item_artifact_quicksilver_amulet</t>
+  </si>
+  <si>
+    <t>每个未使用的人口数，都会为场上单位增加%max_speed%攻击速度上限。</t>
+  </si>
+  <si>
+    <t>item_artifact_tango_single</t>
+  </si>
+  <si>
+    <t>大地之力</t>
+  </si>
+  <si>
+    <t>item_artifact_overwhelming_blink</t>
+  </si>
+  <si>
+    <t>莽夫剑</t>
+  </si>
+  <si>
+    <t>力量主属性的单位获得：增加%all_damage%%%攻击力，减少%energy_reduce%%%获取怒气。</t>
+  </si>
+  <si>
+    <t>item_artifact_bottle_regeneration</t>
+  </si>
+  <si>
+    <t>恢复神符</t>
+  </si>
+  <si>
+    <t>每回合开始时为所有防御塔恢复%energy_regen_round%%%怒气和%mana_regen_round%%%魔法值，无尽回合时无效。</t>
+  </si>
+  <si>
+    <t>item_artifact_metor_ring</t>
+  </si>
+  <si>
+    <t>流星之戒</t>
+  </si>
+  <si>
+    <t>增加%max_gold%金币上限</t>
+  </si>
+  <si>
+    <t>item_artifact_golden_stone</t>
+  </si>
+  <si>
+    <t>点石成金</t>
+  </si>
+  <si>
+    <t>装备随机合成时有%chance%%概率额外提升1星级</t>
+  </si>
+  <si>
+    <t>item_artifact_remake_master</t>
+  </si>
+  <si>
+    <t>铸造大师</t>
+  </si>
+  <si>
+    <t>重铸装备时有%chance%%概率提升1星级(重铸专属时会获得更高稀有度英雄的专属)</t>
+  </si>
+  <si>
+    <t>item_artifact_soul_spirit</t>
+  </si>
+  <si>
+    <t>灵魂羁绊</t>
+  </si>
+  <si>
+    <t>召唤物攻击时为所属者回复%recover%点怒气</t>
+  </si>
+  <si>
+    <t>item_artifact_bottle_doubledamage</t>
+  </si>
+  <si>
+    <t>双倍神符</t>
+  </si>
+  <si>
+    <t>每回合开始时为所有防御塔提供%bonus_attack%%%攻击力加成，持续%duration%秒，无尽回合时无效。</t>
+  </si>
+  <si>
+    <t>item_artifact_bottle_arcane</t>
+  </si>
+  <si>
+    <t>奥术神符</t>
+  </si>
+  <si>
+    <t>每回合开始时为所有防御塔提供%bonus_spell_amp%%%技能增强，持续%duration%秒，无尽回合时无效。</t>
+  </si>
+  <si>
+    <t>item_artifact_arcane_blink</t>
+  </si>
+  <si>
+    <t>智者剑</t>
+  </si>
+  <si>
+    <t>智力主属性的单位获得：增加%bonus_spell_amp%%%技能增强，减少%reduce_mana_per%%%最大魔法值。</t>
+  </si>
+  <si>
+    <t>item_artifact_voodoo_mask</t>
+  </si>
+  <si>
+    <t>己方英雄每次击杀单位时获得%bonus_on_kill%点永久主属性加成，无尽回合时无效。</t>
+  </si>
+  <si>
+    <t>item_artifact_pelt_of_wolf</t>
+  </si>
+  <si>
+    <t>迅捷狼毫</t>
+  </si>
+  <si>
+    <t>通过任意技能或物品传送后获得%bonus_dmg_pct%%%全伤害加成，持续%duration%秒，不可叠加。&lt;br&gt;英雄自带的传送技能耗时降低至%tp_duration_cover%秒。</t>
+  </si>
+  <si>
+    <t>item_artifact_meteor_hammer</t>
+  </si>
+  <si>
+    <t>千钧锤</t>
+  </si>
+  <si>
+    <t>敏捷主属性的单位获得：普通攻击造成的伤害增加%bonus_dmg_pct%%%，基础攻击间隔增加%base_attack_time_add%秒</t>
+  </si>
+  <si>
+    <t>item_artifact_star_mace</t>
+  </si>
+  <si>
+    <t>圣诞糖</t>
+  </si>
+  <si>
+    <t>item_artifact_quarterstaff</t>
+  </si>
+  <si>
+    <t>光棍</t>
+  </si>
+  <si>
+    <t>每个未使用的人口数，都会为场上单位增加%speed%攻击速度。</t>
+  </si>
+  <si>
+    <t>item_artifact_grove_bow</t>
+  </si>
+  <si>
+    <t>风之弓</t>
+  </si>
+  <si>
+    <t>为所有远程防御塔提供%attack_speed_global%攻击速度，拥有《风之剑》时还会额外提供%bonus_agi_active%敏捷。</t>
+  </si>
+  <si>
+    <t>item_artifact_falcon_blade</t>
+  </si>
+  <si>
+    <t>风之剑</t>
+  </si>
+  <si>
+    <t>为所有近战单位提供+%attack_damage_global%攻击力，拥有《风之弓》时还会额外提供%bonus_agi_active%敏捷。</t>
+  </si>
+  <si>
+    <t>item_artifact_infused_raindrop</t>
+  </si>
+  <si>
+    <t>item_artifact_repair_kit</t>
+  </si>
+  <si>
+    <t>item_artifact_bottle_bounty</t>
+  </si>
+  <si>
+    <t>赏金神符</t>
+  </si>
+  <si>
+    <t>每回合开始时获得%bonus_gold%金币，若场上存在【炼金术士】，获得金币变为%bonus_gold_mult%倍，无尽回合时无效。</t>
+  </si>
+  <si>
+    <t>item_artifact_summon_master</t>
+  </si>
+  <si>
+    <t>召唤大师</t>
+  </si>
+  <si>
+    <t>所有召唤物获得%critchance%%物理暴击概率和%critdamage%%物理暴击伤害</t>
+  </si>
+  <si>
+    <t>item_artifact_fathorse_lose</t>
+  </si>
+  <si>
+    <t>塞翁失马</t>
+  </si>
+  <si>
+    <t>回合结束时获得自身当前漏怪数*%factor%数量的矿金</t>
+  </si>
+  <si>
+    <t>item_artifact_liren</t>
+  </si>
+  <si>
+    <t>动力鞋.物</t>
+  </si>
+  <si>
+    <t>所有英雄造成物理伤害提升%physicaldamage%%%</t>
+  </si>
+  <si>
+    <t>item_artifact_yingguang</t>
+  </si>
+  <si>
+    <t>动力鞋.魔</t>
+  </si>
+  <si>
+    <t>所有英雄造成魔法伤害提升%magicaldamage%%%</t>
+  </si>
+  <si>
+    <t>item_artifact_shengguang</t>
+  </si>
+  <si>
+    <t>动力鞋.纯</t>
+  </si>
+  <si>
+    <t>所有英雄造成纯粹伤害提升%puredamage%%%</t>
+  </si>
+  <si>
+    <t>item_artifact_dogplayer</t>
+  </si>
+  <si>
+    <t>召唤勋章</t>
+  </si>
+  <si>
+    <t>召唤物伤害提升%pct%%%</t>
+  </si>
+  <si>
+    <t>item_artifact_atkring</t>
+  </si>
+  <si>
+    <t>攻击瓶子</t>
+  </si>
+  <si>
+    <t>所有英雄物理暴击概率提升%chance%%%，物理暴击伤害提升%damage%%%</t>
+  </si>
+  <si>
+    <t>item_artifact_skillring</t>
+  </si>
+  <si>
+    <t>技能瓶子</t>
+  </si>
+  <si>
+    <t>所有英雄技能暴击概率提升%chance%%%，技能暴击伤害提升%damage%%%</t>
+  </si>
+  <si>
+    <t>item_artifact_ascetic_cap</t>
+  </si>
+  <si>
+    <t>所有英雄状态抗性提升%status_res%%%。</t>
+  </si>
+  <si>
+    <t>item_artifact_part_of_contracts</t>
+  </si>
+  <si>
+    <t>宣战令</t>
+  </si>
+  <si>
+    <t>item_artifact_bottle_empty</t>
+  </si>
+  <si>
+    <t>空瓶</t>
+  </si>
+  <si>
+    <t>神器选择时，若选择【全都不要】，额外获得%extra_wood%矿金。获得此神器的时候也会立刻获得%wood_on_get%矿金。</t>
   </si>
   <si>
     <t>item_imba_shadow_blade</t>
@@ -7794,7 +8253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7827,6 +8286,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8175,10 +8635,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AO613"/>
+  <dimension ref="A1:AO668"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A570" workbookViewId="0">
-      <selection activeCell="C611" sqref="C611"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A640" workbookViewId="0">
+      <selection activeCell="D662" sqref="D662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="15"/>
@@ -21747,6 +22207,611 @@
       </c>
       <c r="C613" s="4" t="s">
         <v>2363</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614" s="12" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B614" s="4" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C614" s="4" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3">
+      <c r="A615" s="12" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B615" s="4" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C615" s="4" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="A616" s="12" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B616" s="4" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C616" s="4" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="A617" s="12" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B617" s="4" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C617" s="4" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="A618" s="12" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B618" s="4" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C618" s="4" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3">
+      <c r="A619" s="12" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B619" s="4" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C619" s="4" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="A620" s="12" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B620" s="4" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C620" s="4" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="A621" s="12" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B621" s="4" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C621" s="4" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622" s="12" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B622" s="4" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C622" s="4" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="A623" s="12" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B623" s="4" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C623" s="4" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624" s="12" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B624" s="4" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C624" s="4" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="A625" s="12" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B625" s="4" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C625" s="4" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626" s="12" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B626" s="4" t="s">
+        <v>2400</v>
+      </c>
+      <c r="C626" s="4" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="A627" s="12" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B627" s="4" t="s">
+        <v>2403</v>
+      </c>
+      <c r="C627" s="4" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="A628" s="12" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B628" s="4" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C628" s="4" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3">
+      <c r="A629" s="12" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B629" s="4" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C629" s="4" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="A630" s="12" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B630" s="4" t="s">
+        <v>2412</v>
+      </c>
+      <c r="C630" s="4" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="A631" s="12" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B631" s="4" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C631" s="4" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="A632" s="12" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B632" s="4" t="s">
+        <v>2418</v>
+      </c>
+      <c r="C632" s="4" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="A633" s="12" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B633" s="4" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C633" s="4" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="A634" s="12" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B634" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C634" s="4" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635" s="12" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B635" s="4" t="s">
+        <v>2426</v>
+      </c>
+      <c r="C635" s="4" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="A636" s="12" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B636" s="4" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C636" s="4" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="A637" s="12" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B637" s="4" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C637" s="4" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="A638" s="12" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B638" s="4" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C638" s="4" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3">
+      <c r="A639" s="12" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B639" s="4" t="s">
+        <v>2436</v>
+      </c>
+      <c r="C639" s="4" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3">
+      <c r="A640" s="12" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B640" s="4" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C640" s="4" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3">
+      <c r="A641" s="12" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B641" s="4" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C641" s="4" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="A642" s="12" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B642" s="4" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C642" s="4" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="A643" s="12" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B643" s="4" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C643" s="4" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="A644" s="12" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B644" s="4" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C644" s="4" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3">
+      <c r="A645" s="12" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B645" s="4" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C645" s="4" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646" s="12" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B646" s="4" t="s">
+        <v>2457</v>
+      </c>
+      <c r="C646" s="4" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="A647" s="12" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B647" s="4" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C647" s="4" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3">
+      <c r="A648" s="12" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B648" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C648" s="4" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3">
+      <c r="A649" s="12" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B649" s="4" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C649" s="4" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3">
+      <c r="A650" s="12" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B650" s="4" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C650" s="4" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3">
+      <c r="A651" s="12" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B651" s="4" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C651" s="4" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3">
+      <c r="A652" s="12" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B652" s="4" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C652" s="4" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3">
+      <c r="A653" s="12" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B653" s="4" t="s">
+        <v>2476</v>
+      </c>
+      <c r="C653" s="4" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3">
+      <c r="A654" s="12" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B654" s="4" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C654" s="4" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3">
+      <c r="A655" s="12" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B655" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C655" s="4" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3">
+      <c r="A656" s="12" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B656" s="4" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C656" s="4" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3">
+      <c r="A657" s="12" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B657" s="4" t="s">
+        <v>2484</v>
+      </c>
+      <c r="C657" s="4" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3">
+      <c r="A658" s="12" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B658" s="4" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C658" s="4" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3">
+      <c r="A659" s="12" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B659" s="4" t="s">
+        <v>2490</v>
+      </c>
+      <c r="C659" s="4" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3">
+      <c r="A660" s="12" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B660" s="4" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C660" s="4" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3">
+      <c r="A661" s="12" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B661" s="4" t="s">
+        <v>2496</v>
+      </c>
+      <c r="C661" s="4" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3">
+      <c r="A662" s="12" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B662" s="4" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C662" s="4" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3">
+      <c r="A663" s="12" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B663" s="4" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C663" s="4" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3">
+      <c r="A664" s="12" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B664" s="4" t="s">
+        <v>2505</v>
+      </c>
+      <c r="C664" s="4" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3">
+      <c r="A665" s="12" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B665" s="4" t="s">
+        <v>2508</v>
+      </c>
+      <c r="C665" s="4" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3">
+      <c r="A666" s="12" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B666" s="4" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C666" s="4" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3">
+      <c r="A667" s="12" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B667" s="4" t="s">
+        <v>2513</v>
+      </c>
+      <c r="C667" s="4" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3">
+      <c r="A668" s="12" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B668" s="4" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C668" s="4" t="s">
+        <v>2516</v>
       </c>
     </row>
   </sheetData>
@@ -21809,7 +22874,7 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>2364</v>
+        <v>2517</v>
       </c>
       <c r="B4" s="1" t="e">
         <v>#N/A</v>
@@ -21819,7 +22884,7 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>2365</v>
+        <v>2518</v>
       </c>
       <c r="B5" s="1" t="e">
         <v>#N/A</v>
@@ -21879,7 +22944,7 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>2366</v>
+        <v>2519</v>
       </c>
       <c r="B11" s="1" t="e">
         <v>#N/A</v>
@@ -21999,7 +23064,7 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>2367</v>
+        <v>2520</v>
       </c>
       <c r="B23" s="1" t="e">
         <v>#N/A</v>
@@ -22069,7 +23134,7 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>2368</v>
+        <v>2521</v>
       </c>
       <c r="B30" s="1" t="e">
         <v>#N/A</v>
@@ -22099,7 +23164,7 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A33" s="1" t="s">
-        <v>2369</v>
+        <v>2522</v>
       </c>
       <c r="B33" s="1" t="e">
         <v>#N/A</v>
@@ -22109,7 +23174,7 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A34" s="1" t="s">
-        <v>2370</v>
+        <v>2523</v>
       </c>
       <c r="B34" s="1" t="e">
         <v>#N/A</v>
@@ -22139,7 +23204,7 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A37" s="1" t="s">
-        <v>2371</v>
+        <v>2524</v>
       </c>
       <c r="B37" s="1" t="e">
         <v>#N/A</v>
@@ -22179,7 +23244,7 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A41" s="1" t="s">
-        <v>2372</v>
+        <v>2525</v>
       </c>
       <c r="B41" s="1" t="e">
         <v>#N/A</v>
@@ -22189,7 +23254,7 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A42" s="1" t="s">
-        <v>2373</v>
+        <v>2526</v>
       </c>
       <c r="B42" s="1" t="e">
         <v>#N/A</v>

--- a/code/excels/items/imba_items_lang.xlsx
+++ b/code/excels/items/imba_items_lang.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4220" uniqueCount="2527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4306" uniqueCount="2598">
   <si>
     <t>主键</t>
   </si>
@@ -3876,7 +3876,7 @@
     <t>奥术鞋</t>
   </si>
   <si>
-    <t>&lt;h1&gt;主动：补魔&lt;/h1&gt;回复英雄周围友方单位%replenish_amount%点魔法。&lt;br&gt;&lt;br&gt;作用范围：%replenish_radius%\n多个鞋类物品提供的移动速度加成不叠加。</t>
+    <t>&lt;h1&gt;主动：补魔&lt;/h1&gt;回复英雄周围友方单位%replenish_mana%点魔法。&lt;br&gt;&lt;br&gt;作用范围：%replenish_radius%\n多个鞋类物品提供的移动速度加成不叠加。</t>
   </si>
   <si>
     <t>装备这种鞋子的法师在战斗中值得重视。</t>
@@ -7570,6 +7570,219 @@
   </si>
   <si>
     <t>神器选择时，若选择【全都不要】，额外获得%extra_wood%矿金。获得此神器的时候也会立刻获得%wood_on_get%矿金。</t>
+  </si>
+  <si>
+    <t>item_shop_small_gold_bag</t>
+  </si>
+  <si>
+    <t>小袋金币</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;使用：消耗&lt;/h1&gt;打开后获得%random_min% — %random_max% 的金币。</t>
+  </si>
+  <si>
+    <t>item_shop_small_wood_bag</t>
+  </si>
+  <si>
+    <t>小袋木材</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;使用：消耗&lt;/h1&gt;打开后获得%random_min% — %random_max% 的木材。</t>
+  </si>
+  <si>
+    <t>item_shop_small_soulcrystal_bag</t>
+  </si>
+  <si>
+    <t>小袋魂晶</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;使用：消耗&lt;/h1&gt;打开后获得%random_min% — %random_max% 的魂晶。</t>
+  </si>
+  <si>
+    <t>item_shop_stat_all_book</t>
+  </si>
+  <si>
+    <t>全属性之书</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;使用：消耗&lt;/h1&gt;对目标使用后，增加英雄全属性%add_value%点。</t>
+  </si>
+  <si>
+    <t>item_shop_stat_primary_book</t>
+  </si>
+  <si>
+    <t>主属性之书</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;使用：消耗&lt;/h1&gt;对目标使用后，增加英雄主属性%add_value%点。</t>
+  </si>
+  <si>
+    <t>item_shop_stat_strength_book</t>
+  </si>
+  <si>
+    <t>力量之书</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;使用：消耗&lt;/h1&gt;对目标使用后，增加英雄力量%add_value%点。</t>
+  </si>
+  <si>
+    <t>item_shop_stat_agility_book</t>
+  </si>
+  <si>
+    <t>敏捷之书</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;使用：消耗&lt;/h1&gt;对目标使用后，增加英雄敏捷%add_value%点。</t>
+  </si>
+  <si>
+    <t>item_shop_stat_intelligence_book</t>
+  </si>
+  <si>
+    <t>智力之书</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;使用：消耗&lt;/h1&gt;对目标使用后，增加英雄智力%add_value%点。</t>
+  </si>
+  <si>
+    <t>item_shop_draw_card_v1</t>
+  </si>
+  <si>
+    <t>初级抽卡券</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;使用：抽卡&lt;/h1&gt;使用消耗后，进行初级抽卡1次。</t>
+  </si>
+  <si>
+    <t>item_shop_draw_card_v2</t>
+  </si>
+  <si>
+    <t>中级抽卡券</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;使用：抽卡&lt;/h1&gt;使用消耗后，进行中级抽卡1次。</t>
+  </si>
+  <si>
+    <t>item_shop_draw_card_v3</t>
+  </si>
+  <si>
+    <t>高级抽卡券</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;使用：抽卡&lt;/h1&gt;使用消耗后，进行高级抽卡1次。</t>
+  </si>
+  <si>
+    <t>item_shop_addstar_green</t>
+  </si>
+  <si>
+    <t>绿色升星卡</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;使用：升星&lt;/h1&gt;只能对绿色[C]棋子使用。使目标星级+1。</t>
+  </si>
+  <si>
+    <t>item_shop_addstar_blue</t>
+  </si>
+  <si>
+    <t>蓝色升星卡</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;使用：升星&lt;/h1&gt;只能对蓝色[B]棋子使用。使目标星级+1。</t>
+  </si>
+  <si>
+    <t>item_shop_addstar_purple</t>
+  </si>
+  <si>
+    <t>紫色升星卡</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;使用：升星&lt;/h1&gt;只能对紫色[A]棋子使用。使目标星级+1。</t>
+  </si>
+  <si>
+    <t>item_shop_addstar_gold</t>
+  </si>
+  <si>
+    <t>橙色升星卡</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;使用：升星&lt;/h1&gt;只能对橙色[S]棋子使用。使目标星级+1。</t>
+  </si>
+  <si>
+    <t>item_shop_random_card_purple</t>
+  </si>
+  <si>
+    <t>随机紫色卡</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;使用：特殊抽卡&lt;/h1&gt;使用消耗后，随机4个紫色英雄任选。</t>
+  </si>
+  <si>
+    <t>item_shop_random_card_gold</t>
+  </si>
+  <si>
+    <t>随机橙色卡</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;使用：特殊抽卡&lt;/h1&gt;使用消耗后，随机4个橙色英雄任选。</t>
+  </si>
+  <si>
+    <t>item_shop_equipchoose_c</t>
+  </si>
+  <si>
+    <t>初级装备宝箱(多选1）</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;使用：选择装备&lt;/h1&gt;使用后，提供%count%件装备任选其一。</t>
+  </si>
+  <si>
+    <t>c_pect</t>
+  </si>
+  <si>
+    <t>&lt;font color='#00ff00FF'&gt;绿色[C]装备权重&lt;/font&gt;：</t>
+  </si>
+  <si>
+    <t>b_pect</t>
+  </si>
+  <si>
+    <t>&lt;font color='#00ffffFF'&gt;蓝色[B]装备权重&lt;/font&gt;：</t>
+  </si>
+  <si>
+    <t>item_shop_equipchoose_b</t>
+  </si>
+  <si>
+    <t>中级装备宝箱(多选1）</t>
+  </si>
+  <si>
+    <t>a_pect</t>
+  </si>
+  <si>
+    <t>&lt;font color='#990099FF'&gt;紫色[A]装备权重&lt;/font&gt;：</t>
+  </si>
+  <si>
+    <t>item_shop_equipchoose_a</t>
+  </si>
+  <si>
+    <t>高级装备宝箱(多选1）</t>
+  </si>
+  <si>
+    <t>s_pect</t>
+  </si>
+  <si>
+    <t>&lt;font color='#ffff00FF'&gt;橙色[S]装备权重&lt;/font&gt;：</t>
+  </si>
+  <si>
+    <t>item_shop_equipchoose_s</t>
+  </si>
+  <si>
+    <t>传奇装备宝箱(多选1）</t>
+  </si>
+  <si>
+    <t>item_shop_artifactchoose</t>
+  </si>
+  <si>
+    <t>神器宝箱(多选1）</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;使用：选择神器&lt;/h1&gt;使用后，提供%count%件神器任选其一。</t>
   </si>
   <si>
     <t>item_imba_shadow_blade</t>
@@ -8253,7 +8466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8287,6 +8500,30 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8635,10 +8872,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AO668"/>
+  <dimension ref="A1:AO690"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A640" workbookViewId="0">
-      <selection activeCell="D662" sqref="D662"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A674" workbookViewId="0">
+      <selection activeCell="C690" sqref="C690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="15"/>
@@ -22812,6 +23049,319 @@
       </c>
       <c r="C668" s="4" t="s">
         <v>2516</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3">
+      <c r="A669" s="9" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B669" s="13" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C669" s="4" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3">
+      <c r="A670" s="9" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B670" s="13" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C670" s="4" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3">
+      <c r="A671" s="9" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B671" s="13" t="s">
+        <v>2524</v>
+      </c>
+      <c r="C671" s="4" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3">
+      <c r="A672" s="9" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B672" s="13" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C672" s="4" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3">
+      <c r="A673" s="9" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B673" s="13" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C673" s="4" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3">
+      <c r="A674" s="9" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B674" s="13" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C674" s="4" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3">
+      <c r="A675" s="9" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B675" s="13" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C675" s="4" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3">
+      <c r="A676" s="9" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B676" s="13" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C676" s="4" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3">
+      <c r="A677" s="9" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B677" s="13" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C677" s="4" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3">
+      <c r="A678" s="9" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B678" s="13" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C678" s="4" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3">
+      <c r="A679" s="9" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B679" s="13" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C679" s="4" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3">
+      <c r="A680" s="9" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B680" s="14" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C680" s="4" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3">
+      <c r="A681" s="9" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B681" s="14" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C681" s="4" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3">
+      <c r="A682" s="9" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B682" s="14" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C682" s="4" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3">
+      <c r="A683" s="9" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B683" s="14" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C683" s="4" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3">
+      <c r="A684" s="9" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B684" s="14" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C684" s="4" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3">
+      <c r="A685" s="9" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B685" s="14" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C685" s="4" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="686" spans="1:22">
+      <c r="A686" s="15" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B686" s="16" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C686" s="4" t="s">
+        <v>2570</v>
+      </c>
+      <c r="N686" s="17" t="s">
+        <v>2571</v>
+      </c>
+      <c r="O686" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="P686" s="18" t="s">
+        <v>2573</v>
+      </c>
+      <c r="Q686" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="R686" s="1"/>
+      <c r="S686" s="1"/>
+      <c r="T686" s="1"/>
+      <c r="U686" s="1"/>
+      <c r="V686" s="1"/>
+    </row>
+    <row r="687" spans="1:22">
+      <c r="A687" s="15" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B687" s="16" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C687" s="4" t="s">
+        <v>2570</v>
+      </c>
+      <c r="N687" s="17" t="s">
+        <v>2571</v>
+      </c>
+      <c r="O687" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="P687" s="18" t="s">
+        <v>2573</v>
+      </c>
+      <c r="Q687" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="R687" s="18" t="s">
+        <v>2577</v>
+      </c>
+      <c r="S687" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="T687" s="1"/>
+      <c r="U687" s="1"/>
+      <c r="V687" s="1"/>
+    </row>
+    <row r="688" spans="1:22">
+      <c r="A688" s="15" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B688" s="16" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C688" s="4" t="s">
+        <v>2570</v>
+      </c>
+      <c r="N688" s="19" t="s">
+        <v>2573</v>
+      </c>
+      <c r="O688" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="P688" s="18" t="s">
+        <v>2577</v>
+      </c>
+      <c r="Q688" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="R688" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="S688" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="T688" s="1"/>
+      <c r="U688" s="1"/>
+      <c r="V688" s="1"/>
+    </row>
+    <row r="689" spans="1:17">
+      <c r="A689" s="15" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B689" s="16" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C689" s="4" t="s">
+        <v>2570</v>
+      </c>
+      <c r="N689" s="18" t="s">
+        <v>2577</v>
+      </c>
+      <c r="O689" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="P689" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="Q689" s="1" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3">
+      <c r="A690" s="15" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B690" s="16" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C690" s="4" t="s">
+        <v>2587</v>
       </c>
     </row>
   </sheetData>
@@ -22874,7 +23424,7 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>2517</v>
+        <v>2588</v>
       </c>
       <c r="B4" s="1" t="e">
         <v>#N/A</v>
@@ -22884,7 +23434,7 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>2518</v>
+        <v>2589</v>
       </c>
       <c r="B5" s="1" t="e">
         <v>#N/A</v>
@@ -22944,7 +23494,7 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>2519</v>
+        <v>2590</v>
       </c>
       <c r="B11" s="1" t="e">
         <v>#N/A</v>
@@ -23064,7 +23614,7 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>2520</v>
+        <v>2591</v>
       </c>
       <c r="B23" s="1" t="e">
         <v>#N/A</v>
@@ -23134,7 +23684,7 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>2521</v>
+        <v>2592</v>
       </c>
       <c r="B30" s="1" t="e">
         <v>#N/A</v>
@@ -23164,7 +23714,7 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A33" s="1" t="s">
-        <v>2522</v>
+        <v>2593</v>
       </c>
       <c r="B33" s="1" t="e">
         <v>#N/A</v>
@@ -23174,7 +23724,7 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A34" s="1" t="s">
-        <v>2523</v>
+        <v>2594</v>
       </c>
       <c r="B34" s="1" t="e">
         <v>#N/A</v>
@@ -23204,7 +23754,7 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A37" s="1" t="s">
-        <v>2524</v>
+        <v>2595</v>
       </c>
       <c r="B37" s="1" t="e">
         <v>#N/A</v>
@@ -23244,7 +23794,7 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A41" s="1" t="s">
-        <v>2525</v>
+        <v>2596</v>
       </c>
       <c r="B41" s="1" t="e">
         <v>#N/A</v>
@@ -23254,7 +23804,7 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A42" s="1" t="s">
-        <v>2526</v>
+        <v>2597</v>
       </c>
       <c r="B42" s="1" t="e">
         <v>#N/A</v>

--- a/code/excels/items/imba_items_lang.xlsx
+++ b/code/excels/items/imba_items_lang.xlsx
@@ -8842,14 +8842,14 @@
   <sheetPr/>
   <dimension ref="A1:AO690"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="A229" sqref="A229"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.6636363636364" style="4" customWidth="1"/>
-    <col min="2" max="2" width="46.1818181818182" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.9727272727273" style="4" customWidth="1"/>
     <col min="3" max="3" width="41.6363636363636" style="4" customWidth="1"/>
     <col min="4" max="4" width="25.1818181818182" style="4" customWidth="1"/>
     <col min="5" max="5" width="9.81818181818182" style="4"/>
